--- a/doc/SingtelIOTProjectPlan.xlsx
+++ b/doc/SingtelIOTProjectPlan.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
   <si>
     <t>About This Template</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>No. Days</t>
-  </si>
-  <si>
-    <t>Assigned To</t>
   </si>
   <si>
     <t>Progress</t>
@@ -131,16 +128,7 @@
 To remove these instructions from the worksheet, simply delete column A.</t>
   </si>
   <si>
-    <t>XAKA  Sensor  Reader</t>
-  </si>
-  <si>
-    <t>YC</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor authentication </t>
   </si>
   <si>
     <t>Firmware sign client program</t>
@@ -149,16 +137,7 @@
     <t>Firmware sign server program</t>
   </si>
   <si>
-    <t>File SWATT integrate</t>
-  </si>
-  <si>
-    <t>Program test + documentation</t>
-  </si>
-  <si>
     <t>OPTEE Raspberry PI + Raspbain-OPTEE</t>
-  </si>
-  <si>
-    <t>SingTel IOT Project Plan</t>
   </si>
   <si>
     <t>NUS-SingTel R&amp;D Lab</t>
@@ -170,25 +149,91 @@
     <t>Sensor registration program</t>
   </si>
   <si>
-    <t>LiuYuancheng</t>
-  </si>
-  <si>
-    <t>XAKA  people counting sensor  control + feed back server + data encrypt +  doc</t>
-  </si>
-  <si>
     <t>EEPROM message dump + load program</t>
-  </si>
-  <si>
-    <t>Set Shadowbox V2 Kernel protection on Raspberry PI</t>
-  </si>
-  <si>
-    <t>Set IMA executable file protection for Singtel sensor reading program</t>
   </si>
   <si>
     <t xml:space="preserve">Database management  part + user authorization </t>
   </si>
   <si>
-    <t xml:space="preserve">TLS communication + cert create + message encrypt </t>
+    <t/>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Jun Wen Wong, Mohamed Haroon Basheer and  LiuYuancheng</t>
+  </si>
+  <si>
+    <t>SingTel IOT Project Plan[phase1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attestation with Radar Sensor [5 June] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XAKA  people counting sensor control program + feed back server + data encrypt function. </t>
+  </si>
+  <si>
+    <t>Set Shadowbox V2 Kernel protection on Raspberry PI (TrustZone)</t>
+  </si>
+  <si>
+    <t>Set IMA executable file protection for Singtel sensor reading program (executable file protection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assigned </t>
+  </si>
+  <si>
+    <t>Design improvement and fixed the detial module need to implement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attestation with the gateway [25 June] </t>
+  </si>
+  <si>
+    <t>Use Trust Zone to protect the gateway program</t>
+  </si>
+  <si>
+    <t>GateWay full disk encryption and protection.</t>
+  </si>
+  <si>
+    <t>GateWay full disk encryption [ 14 July]</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem analysis  + Define scope + System design </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem Analysis, System design and Pre-test [18 May] </t>
+  </si>
+  <si>
+    <t>TLS communication + cert create + message encrypt/decrypt</t>
+  </si>
+  <si>
+    <t>File SWATT calculation integrate</t>
+  </si>
+  <si>
+    <t>Program test + Documentation</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
   </si>
 </sst>
 </file>
@@ -199,7 +244,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="d"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="8" tint="-0.499984740745262"/>
@@ -345,14 +390,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="8" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -364,8 +401,22 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,8 +474,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -483,15 +540,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="6" tint="0.39997558519241921"/>
       </left>
@@ -503,19 +551,6 @@
       </top>
       <bottom style="thin">
         <color theme="6" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,7 +710,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -688,7 +723,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -698,16 +733,15 @@
     <xf numFmtId="37" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -745,7 +779,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="7"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -772,20 +806,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="center"/>
@@ -803,45 +828,42 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="8" xfId="11" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="3" borderId="10" xfId="11" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="11" xfId="11" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="12" xfId="11" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="13" xfId="11" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="17" xfId="11" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="15" xfId="11" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="8" applyFill="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -855,24 +877,17 @@
     <xf numFmtId="37" fontId="0" fillId="9" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="7" borderId="19" xfId="14" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="7" borderId="17" xfId="14" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="19" xfId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="17" xfId="14" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="19" xfId="14"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="19" xfId="16"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="15" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" xfId="15"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="17" xfId="14"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="18" xfId="15"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -884,9 +899,6 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="10" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -906,10 +918,54 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="11" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="16">
     <cellStyle name="Bad" xfId="13" builtinId="27"/>
-    <cellStyle name="Calculation" xfId="16" builtinId="22"/>
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Comma [0]" xfId="10" builtinId="6" customBuiltin="1"/>
     <cellStyle name="Date" xfId="9"/>
@@ -926,30 +982,69 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="21">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="8" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="8" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1033,6 +1128,30 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1179,20 +1298,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="3">
+      <tableStyleElement type="wholeTable" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="firstRowStripe" dxfId="18"/>
+    </tableStyle>
+    <tableStyle name="ToDoList" pivot="0" count="9">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
-    </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="14"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="totalRow" dxfId="12"/>
-      <tableStyleElement type="firstColumn" dxfId="11"/>
-      <tableStyleElement type="lastColumn" dxfId="10"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="secondRowStripe" dxfId="8"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="6"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstColumn" dxfId="14"/>
+      <tableStyleElement type="lastColumn" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1291,7 +1410,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
+          <xdr:colOff>219074</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -1334,8 +1453,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Milestones" displayName="Milestones" ref="B6:F23" totalsRowShown="0" headerRowCellStyle="Bad" dataCellStyle="Bad">
-  <autoFilter ref="B6:F23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Milestones" displayName="Milestones" ref="B6:F28" totalsRowShown="0" headerRowCellStyle="Bad" dataCellStyle="Bad">
+  <autoFilter ref="B6:F28">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1343,8 +1462,8 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Milestone Description" dataDxfId="0"/>
-    <tableColumn id="3" name="Assigned To"/>
+    <tableColumn id="1" name="Milestone Description" dataDxfId="8"/>
+    <tableColumn id="3" name="Assigned "/>
     <tableColumn id="4" name="Progress"/>
     <tableColumn id="5" name="Start"/>
     <tableColumn id="6" name="No. Days"/>
@@ -1624,31 +1743,34 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BK26"/>
+  <dimension ref="A1:BZ30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="BM5" sqref="BM5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="64.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="2.7109375" customWidth="1"/>
     <col min="8" max="63" width="3.5703125" customWidth="1"/>
-    <col min="68" max="69" width="10.28515625"/>
+    <col min="68" max="68" width="10.28515625"/>
+    <col min="69" max="69" width="3.85546875" customWidth="1"/>
+    <col min="70" max="70" width="4.28515625" customWidth="1"/>
+    <col min="78" max="78" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:78" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1"/>
@@ -1656,63 +1778,63 @@
       <c r="I1" s="18"/>
       <c r="AF1" s="18"/>
     </row>
-    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64">
+        <v>43556</v>
+      </c>
+      <c r="F2" s="65"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+    </row>
+    <row r="3" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72">
-        <v>43556</v>
-      </c>
-      <c r="F2" s="73"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
+      <c r="B3" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="36">
+        <v>0</v>
+      </c>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="47"/>
     </row>
-    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="4" spans="1:78" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="39">
-        <v>0</v>
-      </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="50"/>
-    </row>
-    <row r="4" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="40">
-        <v>0</v>
-      </c>
-      <c r="F4" s="37">
+      <c r="C4" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="67"/>
+      <c r="E4" s="37">
+        <v>3</v>
+      </c>
+      <c r="F4" s="34">
         <f>Milestone_Marker</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="17" t="str">
         <f ca="1">TEXT(H5,"mmmm")</f>
@@ -1794,1486 +1916,1577 @@
       <c r="BI4" s="17"/>
       <c r="BJ4" s="17"/>
       <c r="BK4" s="17"/>
+      <c r="BL4" s="17"/>
+      <c r="BM4" s="17"/>
+      <c r="BN4" s="17"/>
+      <c r="BO4" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP4" s="17"/>
+      <c r="BQ4" s="17"/>
+      <c r="BR4" s="17"/>
+      <c r="BS4" s="17"/>
+      <c r="BT4" s="17"/>
+      <c r="BU4" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="BV4" s="17"/>
+      <c r="BW4" s="17"/>
+      <c r="BX4" s="17"/>
+      <c r="BY4" s="17"/>
+      <c r="BZ4" s="17"/>
     </row>
-    <row r="5" spans="1:63" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="49">
+        <v>13</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="46">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
         <v>43556</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="42">
         <f ca="1">H5+1</f>
         <v>43557</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="39">
         <f t="shared" ref="J5:AW5" ca="1" si="0">I5+1</f>
         <v>43558</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="39">
         <f ca="1">J5+1</f>
         <v>43559</v>
       </c>
-      <c r="L5" s="42">
+      <c r="L5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43560</v>
       </c>
-      <c r="M5" s="42">
+      <c r="M5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43561</v>
       </c>
-      <c r="N5" s="42">
+      <c r="N5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43562</v>
       </c>
-      <c r="O5" s="42">
+      <c r="O5" s="39">
         <f ca="1">N5+1</f>
         <v>43563</v>
       </c>
-      <c r="P5" s="42">
+      <c r="P5" s="39">
         <f ca="1">O5+1</f>
         <v>43564</v>
       </c>
-      <c r="Q5" s="42">
+      <c r="Q5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43565</v>
       </c>
-      <c r="R5" s="42">
+      <c r="R5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43566</v>
       </c>
-      <c r="S5" s="42">
+      <c r="S5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43567</v>
       </c>
-      <c r="T5" s="42">
+      <c r="T5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43568</v>
       </c>
-      <c r="U5" s="42">
+      <c r="U5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43569</v>
       </c>
-      <c r="V5" s="42">
+      <c r="V5" s="39">
         <f ca="1">U5+1</f>
         <v>43570</v>
       </c>
-      <c r="W5" s="42">
+      <c r="W5" s="39">
         <f ca="1">V5+1</f>
         <v>43571</v>
       </c>
-      <c r="X5" s="42">
+      <c r="X5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43572</v>
       </c>
-      <c r="Y5" s="42">
+      <c r="Y5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43573</v>
       </c>
-      <c r="Z5" s="42">
+      <c r="Z5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43574</v>
       </c>
-      <c r="AA5" s="42">
+      <c r="AA5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43575</v>
       </c>
-      <c r="AB5" s="42">
+      <c r="AB5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43576</v>
       </c>
-      <c r="AC5" s="42">
+      <c r="AC5" s="39">
         <f ca="1">AB5+1</f>
         <v>43577</v>
       </c>
-      <c r="AD5" s="42">
+      <c r="AD5" s="39">
         <f ca="1">AC5+1</f>
         <v>43578</v>
       </c>
-      <c r="AE5" s="42">
+      <c r="AE5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43579</v>
       </c>
-      <c r="AF5" s="42">
+      <c r="AF5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43580</v>
       </c>
-      <c r="AG5" s="42">
+      <c r="AG5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43581</v>
       </c>
-      <c r="AH5" s="42">
+      <c r="AH5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43582</v>
       </c>
-      <c r="AI5" s="42">
+      <c r="AI5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43583</v>
       </c>
-      <c r="AJ5" s="42">
+      <c r="AJ5" s="39">
         <f ca="1">AI5+1</f>
         <v>43584</v>
       </c>
-      <c r="AK5" s="42">
+      <c r="AK5" s="39">
         <f ca="1">AJ5+1</f>
         <v>43585</v>
       </c>
-      <c r="AL5" s="42">
+      <c r="AL5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43586</v>
       </c>
-      <c r="AM5" s="42">
+      <c r="AM5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43587</v>
       </c>
-      <c r="AN5" s="42">
+      <c r="AN5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43588</v>
       </c>
-      <c r="AO5" s="42">
+      <c r="AO5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43589</v>
       </c>
-      <c r="AP5" s="42">
+      <c r="AP5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43590</v>
       </c>
-      <c r="AQ5" s="42">
+      <c r="AQ5" s="39">
         <f ca="1">AP5+1</f>
         <v>43591</v>
       </c>
-      <c r="AR5" s="42">
+      <c r="AR5" s="39">
         <f ca="1">AQ5+1</f>
         <v>43592</v>
       </c>
-      <c r="AS5" s="42">
+      <c r="AS5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43593</v>
       </c>
-      <c r="AT5" s="42">
+      <c r="AT5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43594</v>
       </c>
-      <c r="AU5" s="42">
+      <c r="AU5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43595</v>
       </c>
-      <c r="AV5" s="42">
+      <c r="AV5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43596</v>
       </c>
-      <c r="AW5" s="42">
+      <c r="AW5" s="39">
         <f t="shared" ca="1" si="0"/>
         <v>43597</v>
       </c>
-      <c r="AX5" s="42">
+      <c r="AX5" s="39">
         <f ca="1">AW5+1</f>
         <v>43598</v>
       </c>
-      <c r="AY5" s="42">
+      <c r="AY5" s="39">
         <f ca="1">AX5+1</f>
         <v>43599</v>
       </c>
-      <c r="AZ5" s="42">
+      <c r="AZ5" s="39">
         <f t="shared" ref="AZ5:BD5" ca="1" si="1">AY5+1</f>
         <v>43600</v>
       </c>
-      <c r="BA5" s="42">
+      <c r="BA5" s="39">
         <f t="shared" ca="1" si="1"/>
         <v>43601</v>
       </c>
-      <c r="BB5" s="42">
+      <c r="BB5" s="39">
         <f t="shared" ca="1" si="1"/>
         <v>43602</v>
       </c>
-      <c r="BC5" s="42">
+      <c r="BC5" s="39">
         <f t="shared" ca="1" si="1"/>
         <v>43603</v>
       </c>
-      <c r="BD5" s="42">
+      <c r="BD5" s="39">
         <f t="shared" ca="1" si="1"/>
         <v>43604</v>
       </c>
-      <c r="BE5" s="42">
+      <c r="BE5" s="39">
         <f ca="1">BD5+1</f>
         <v>43605</v>
       </c>
-      <c r="BF5" s="42">
+      <c r="BF5" s="39">
         <f ca="1">BE5+1</f>
         <v>43606</v>
       </c>
-      <c r="BG5" s="42">
-        <f t="shared" ref="BG5:BK5" ca="1" si="2">BF5+1</f>
+      <c r="BG5" s="39">
+        <f t="shared" ref="BG5:BI5" ca="1" si="2">BF5+1</f>
         <v>43607</v>
       </c>
-      <c r="BH5" s="42">
+      <c r="BH5" s="39">
         <f t="shared" ca="1" si="2"/>
         <v>43608</v>
       </c>
-      <c r="BI5" s="42">
+      <c r="BI5" s="39">
         <f t="shared" ca="1" si="2"/>
         <v>43609</v>
       </c>
-      <c r="BJ5" s="42">
-        <f t="shared" ca="1" si="2"/>
+      <c r="BJ5" s="39">
+        <f ca="1">BI5+1</f>
         <v>43610</v>
       </c>
-      <c r="BK5" s="44">
-        <f t="shared" ca="1" si="2"/>
+      <c r="BK5" s="41">
+        <f ca="1">BJ5+1</f>
         <v>43611</v>
       </c>
+      <c r="BL5" s="46"/>
+      <c r="BM5" s="42"/>
+      <c r="BN5" s="39"/>
+      <c r="BO5" s="39"/>
+      <c r="BP5" s="39"/>
+      <c r="BQ5" s="39">
+        <v>25</v>
+      </c>
+      <c r="BR5" s="39">
+        <v>26</v>
+      </c>
+      <c r="BS5" s="39"/>
+      <c r="BT5" s="39"/>
+      <c r="BU5" s="39"/>
+      <c r="BV5" s="39"/>
+      <c r="BW5" s="39"/>
+      <c r="BX5" s="39"/>
+      <c r="BY5" s="39"/>
+      <c r="BZ5" s="39">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:63" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:78" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="E6" s="23" t="s">
         <v>5</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>6</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="21"/>
-      <c r="H6" s="43" t="str">
+      <c r="H6" s="40" t="str">
         <f ca="1">LEFT(TEXT(H5,"ddd"),1)</f>
         <v>M</v>
       </c>
-      <c r="I6" s="46" t="str">
+      <c r="I6" s="43" t="str">
         <f ca="1">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="J6" s="48" t="str">
+      <c r="J6" s="45" t="str">
         <f ca="1">LEFT(TEXT(J5,"ddd"),1)</f>
         <v>W</v>
       </c>
-      <c r="K6" s="47" t="str">
+      <c r="K6" s="44" t="str">
         <f t="shared" ref="K6:AM6" ca="1" si="3">LEFT(TEXT(K5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="L6" s="47" t="str">
+      <c r="L6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>F</v>
       </c>
-      <c r="M6" s="47" t="str">
+      <c r="M6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="N6" s="47" t="str">
+      <c r="N6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="O6" s="47" t="str">
+      <c r="O6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>M</v>
       </c>
-      <c r="P6" s="47" t="str">
+      <c r="P6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="Q6" s="47" t="str">
+      <c r="Q6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>W</v>
       </c>
-      <c r="R6" s="47" t="str">
+      <c r="R6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="S6" s="47" t="str">
+      <c r="S6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>F</v>
       </c>
-      <c r="T6" s="47" t="str">
+      <c r="T6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="U6" s="47" t="str">
+      <c r="U6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="V6" s="47" t="str">
+      <c r="V6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>M</v>
       </c>
-      <c r="W6" s="47" t="str">
+      <c r="W6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="X6" s="47" t="str">
+      <c r="X6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>W</v>
       </c>
-      <c r="Y6" s="47" t="str">
+      <c r="Y6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="Z6" s="47" t="str">
+      <c r="Z6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>F</v>
       </c>
-      <c r="AA6" s="47" t="str">
+      <c r="AA6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="AB6" s="47" t="str">
+      <c r="AB6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="AC6" s="47" t="str">
+      <c r="AC6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>M</v>
       </c>
-      <c r="AD6" s="47" t="str">
+      <c r="AD6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="AE6" s="47" t="str">
+      <c r="AE6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>W</v>
       </c>
-      <c r="AF6" s="47" t="str">
+      <c r="AF6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="AG6" s="47" t="str">
+      <c r="AG6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>F</v>
       </c>
-      <c r="AH6" s="47" t="str">
+      <c r="AH6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="AI6" s="47" t="str">
+      <c r="AI6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="AJ6" s="47" t="str">
+      <c r="AJ6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>M</v>
       </c>
-      <c r="AK6" s="47" t="str">
+      <c r="AK6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="AL6" s="47" t="str">
+      <c r="AL6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>W</v>
       </c>
-      <c r="AM6" s="47" t="str">
+      <c r="AM6" s="44" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>T</v>
       </c>
-      <c r="AN6" s="47" t="str">
-        <f t="shared" ref="AN6:BK6" ca="1" si="4">LEFT(TEXT(AN5,"ddd"),1)</f>
+      <c r="AN6" s="44" t="str">
+        <f t="shared" ref="AN6:BI6" ca="1" si="4">LEFT(TEXT(AN5,"ddd"),1)</f>
         <v>F</v>
       </c>
-      <c r="AO6" s="47" t="str">
+      <c r="AO6" s="44" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>S</v>
       </c>
-      <c r="AP6" s="47" t="str">
+      <c r="AP6" s="44" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>S</v>
       </c>
-      <c r="AQ6" s="47" t="str">
+      <c r="AQ6" s="44" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>M</v>
       </c>
-      <c r="AR6" s="47" t="str">
+      <c r="AR6" s="44" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>T</v>
       </c>
-      <c r="AS6" s="47" t="str">
+      <c r="AS6" s="44" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>W</v>
       </c>
-      <c r="AT6" s="47" t="str">
+      <c r="AT6" s="44" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>T</v>
       </c>
-      <c r="AU6" s="47" t="str">
+      <c r="AU6" s="44" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>F</v>
       </c>
-      <c r="AV6" s="47" t="str">
+      <c r="AV6" s="44" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>S</v>
       </c>
-      <c r="AW6" s="47" t="str">
+      <c r="AW6" s="44" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>S</v>
       </c>
-      <c r="AX6" s="47" t="str">
+      <c r="AX6" s="44" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>M</v>
       </c>
-      <c r="AY6" s="47" t="str">
+      <c r="AY6" s="44" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>T</v>
       </c>
-      <c r="AZ6" s="47" t="str">
+      <c r="AZ6" s="44" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>W</v>
       </c>
-      <c r="BA6" s="47" t="str">
+      <c r="BA6" s="44" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>T</v>
       </c>
-      <c r="BB6" s="47" t="str">
+      <c r="BB6" s="44" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>F</v>
       </c>
-      <c r="BC6" s="47" t="str">
+      <c r="BC6" s="44" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>S</v>
       </c>
-      <c r="BD6" s="47" t="str">
+      <c r="BD6" s="44" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>S</v>
       </c>
-      <c r="BE6" s="47" t="str">
+      <c r="BE6" s="44" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>M</v>
       </c>
-      <c r="BF6" s="47" t="str">
+      <c r="BF6" s="44" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>T</v>
       </c>
-      <c r="BG6" s="47" t="str">
+      <c r="BG6" s="44" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>W</v>
       </c>
-      <c r="BH6" s="47" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="BH6" s="44" t="str">
+        <f ca="1">LEFT(TEXT(BH5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="BI6" s="47" t="str">
+      <c r="BI6" s="44" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>F</v>
       </c>
-      <c r="BJ6" s="47" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="BJ6" s="44" t="str">
+        <f ca="1">LEFT(TEXT(BJ5,"ddd"),1)</f>
         <v>S</v>
       </c>
-      <c r="BK6" s="47" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="BK6" s="44" t="str">
+        <f ca="1">LEFT(TEXT(BK5,"ddd"),1)</f>
         <v>S</v>
       </c>
+      <c r="BL6" s="40"/>
+      <c r="BM6" s="43"/>
+      <c r="BN6" s="45"/>
+      <c r="BO6" s="44"/>
+      <c r="BP6" s="44"/>
+      <c r="BQ6" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="BR6" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="BS6" s="44"/>
+      <c r="BT6" s="44"/>
+      <c r="BU6" s="44"/>
+      <c r="BV6" s="44"/>
+      <c r="BW6" s="44"/>
+      <c r="BX6" s="44"/>
+      <c r="BY6" s="44"/>
+      <c r="BZ6" s="84" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="7" spans="1:63" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:78" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="31"/>
+        <v>18</v>
+      </c>
+      <c r="B7" s="29"/>
       <c r="C7" s="23"/>
       <c r="D7" s="24"/>
       <c r="E7" s="25"/>
       <c r="F7" s="26"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41"/>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="41"/>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="41"/>
-      <c r="AR7" s="41"/>
-      <c r="AS7" s="41"/>
-      <c r="AT7" s="41"/>
-      <c r="AU7" s="41"/>
-      <c r="AV7" s="41"/>
-      <c r="AW7" s="41"/>
-      <c r="AX7" s="41"/>
-      <c r="AY7" s="41"/>
-      <c r="AZ7" s="41"/>
-      <c r="BA7" s="41"/>
-      <c r="BB7" s="41"/>
-      <c r="BC7" s="41"/>
-      <c r="BD7" s="41"/>
-      <c r="BE7" s="41"/>
-      <c r="BF7" s="41"/>
-      <c r="BG7" s="41"/>
-      <c r="BH7" s="41"/>
-      <c r="BI7" s="41"/>
-      <c r="BJ7" s="41"/>
-      <c r="BK7" s="41"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="38"/>
+      <c r="AK7" s="38"/>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="38"/>
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="38"/>
+      <c r="AQ7" s="38"/>
+      <c r="AR7" s="38"/>
+      <c r="AS7" s="38"/>
+      <c r="AT7" s="38"/>
+      <c r="AU7" s="38"/>
+      <c r="AV7" s="38"/>
+      <c r="AW7" s="38"/>
+      <c r="AX7" s="38"/>
+      <c r="AY7" s="38"/>
+      <c r="AZ7" s="38"/>
+      <c r="BA7" s="38"/>
+      <c r="BB7" s="38"/>
+      <c r="BC7" s="38"/>
+      <c r="BD7" s="38"/>
+      <c r="BE7" s="38"/>
+      <c r="BF7" s="38"/>
+      <c r="BG7" s="38"/>
+      <c r="BH7" s="38"/>
+      <c r="BI7" s="38"/>
+      <c r="BJ7" s="38"/>
+      <c r="BK7" s="38"/>
+      <c r="BZ7" s="19"/>
     </row>
-    <row r="8" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
+        <v>19</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="29" t="str">
+      <c r="H8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(H$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="I8" s="29" t="str">
+      <c r="I8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(I$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="J8" s="29" t="str">
+      <c r="J8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(J$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="K8" s="29" t="str">
+      <c r="K8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(K$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="L8" s="29" t="str">
+      <c r="L8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(L$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="M8" s="29" t="str">
+      <c r="M8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(M$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="N8" s="29" t="str">
+      <c r="N8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(N$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="O8" s="29" t="str">
+      <c r="O8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(O$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="P8" s="29" t="str">
+      <c r="P8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(P$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Q8" s="29" t="str">
+      <c r="Q8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Q$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="R8" s="29" t="str">
+      <c r="R8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(R$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="S8" s="29" t="str">
+      <c r="S8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(S$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="T8" s="29" t="str">
+      <c r="T8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(T$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="U8" s="29" t="str">
+      <c r="U8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(U$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="V8" s="29" t="str">
+      <c r="V8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(V$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="W8" s="29" t="str">
+      <c r="W8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(W$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="X8" s="29" t="str">
+      <c r="X8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(X$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Y8" s="29" t="str">
+      <c r="Y8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Y$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Z8" s="29" t="str">
+      <c r="Z8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Z$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AA8" s="29" t="str">
+      <c r="AA8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AA$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AB8" s="29" t="str">
+      <c r="AB8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AB$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AC8" s="29" t="str">
+      <c r="AC8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AC$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AD8" s="29" t="str">
+      <c r="AD8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AD$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AE8" s="29" t="str">
+      <c r="AE8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AE$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AF8" s="29" t="str">
+      <c r="AF8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AF$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AG8" s="29" t="str">
+      <c r="AG8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AG$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AH8" s="29" t="str">
+      <c r="AH8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AH$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AI8" s="29" t="str">
+      <c r="AI8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AI$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ8" s="29" t="str">
+      <c r="AJ8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AJ$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AK8" s="29" t="str">
+      <c r="AK8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AK$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AL8" s="29" t="str">
+      <c r="AL8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AL$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AM8" s="29" t="str">
+      <c r="AM8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AM$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AN8" s="29" t="str">
+      <c r="AN8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AN$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AO8" s="29" t="str">
+      <c r="AO8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AO$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AP8" s="29" t="str">
+      <c r="AP8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AP$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ8" s="29" t="str">
+      <c r="AQ8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AQ$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AR8" s="29" t="str">
+      <c r="AR8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AR$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AS8" s="29" t="str">
+      <c r="AS8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AS$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AT8" s="29" t="str">
+      <c r="AT8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AT$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AU8" s="29" t="str">
+      <c r="AU8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AU$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AV8" s="29" t="str">
+      <c r="AV8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AV$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AW8" s="29" t="str">
+      <c r="AW8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AW$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AX8" s="29" t="str">
+      <c r="AX8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AX$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AY8" s="29" t="str">
+      <c r="AY8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AY$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ8" s="29" t="str">
+      <c r="AZ8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AZ$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BA8" s="29" t="str">
+      <c r="BA8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BA$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BB8" s="29" t="str">
+      <c r="BB8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BB$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BC8" s="29" t="str">
+      <c r="BC8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BC$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BD8" s="29" t="str">
+      <c r="BD8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BD$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BE8" s="29" t="str">
+      <c r="BE8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BE$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BF8" s="29" t="str">
+      <c r="BF8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BF$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BG8" s="29" t="str">
+      <c r="BG8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BG$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BH8" s="29" t="str">
+      <c r="BH8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BH$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BI8" s="29" t="str">
+      <c r="BI8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BI$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ8" s="29" t="str">
+      <c r="BJ8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BJ$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BK8" s="29" t="str">
+      <c r="BK8" s="28" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
+      <c r="BL8" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BL$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BM8" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BM$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BN8" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BN$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BO8" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BO$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BP8" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BP$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BQ8" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BQ$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BR8" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BR$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BS8" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BS$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BT8" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BT$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BU8" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BU$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BV8" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BV$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BW8" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BW$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BX8" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BX$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BY8" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BZ8" s="75" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
     </row>
-    <row r="9" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="27"/>
+      <c r="B9" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="69"/>
       <c r="D9" s="24">
         <v>1</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="70">
         <v>43556</v>
       </c>
-      <c r="F9" s="26">
-        <v>6</v>
-      </c>
+      <c r="F9" s="71"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(K$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L9" s="59" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(L$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(M$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(N$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(O$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(P$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q9" s="59" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Q$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R9" s="59" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(R$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(S$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(T$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(U$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(V$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(W$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(X$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Y$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AA$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AB$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AC$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AD$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AE$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AF$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AG$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AH$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AI$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AJ$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AK$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AL$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AM$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AN$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AO$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AP$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AQ$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AR$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AS$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AT$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AU$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AV$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AW$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AX$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AY$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AZ$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BA$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BB$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BC$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BD$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BE$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BF$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BG$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BH9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BH$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BI$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BJ9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BJ$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BK9" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E9,$F9=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="56"/>
+      <c r="AN9" s="56"/>
+      <c r="AO9" s="56"/>
+      <c r="AP9" s="56"/>
+      <c r="AQ9" s="56"/>
+      <c r="AR9" s="56"/>
+      <c r="AS9" s="56"/>
+      <c r="AT9" s="56"/>
+      <c r="AU9" s="56"/>
+      <c r="AV9" s="56"/>
+      <c r="AW9" s="56"/>
+      <c r="AX9" s="72"/>
+      <c r="AY9" s="72"/>
+      <c r="AZ9" s="72"/>
+      <c r="BA9" s="72"/>
+      <c r="BB9" s="72"/>
+      <c r="BC9" s="72"/>
+      <c r="BD9" s="72"/>
+      <c r="BE9" s="72"/>
+      <c r="BF9" s="72"/>
+      <c r="BG9" s="72"/>
+      <c r="BH9" s="72"/>
+      <c r="BI9" s="72"/>
+      <c r="BJ9" s="72"/>
+      <c r="BK9" s="72"/>
+      <c r="BL9" s="72"/>
+      <c r="BM9" s="72"/>
+      <c r="BN9" s="72"/>
+      <c r="BO9" s="72"/>
+      <c r="BP9" s="72"/>
+      <c r="BQ9" s="72"/>
+      <c r="BR9" s="72"/>
+      <c r="BS9" s="72"/>
+      <c r="BT9" s="72"/>
+      <c r="BU9" s="72"/>
+      <c r="BV9" s="72"/>
+      <c r="BW9" s="72"/>
+      <c r="BX9" s="72"/>
+      <c r="BY9" s="72"/>
+      <c r="BZ9" s="72"/>
     </row>
-    <row r="10" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="31" t="s">
-        <v>38</v>
+      <c r="B10" s="73" t="s">
+        <v>39</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="24">
         <v>1</v>
       </c>
       <c r="E10" s="25">
-        <v>43560</v>
+        <v>43556</v>
       </c>
       <c r="F10" s="26">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G10" s="20"/>
-      <c r="H10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(H$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(I$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="57" t="str">
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(K$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L10" s="55" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(L$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="M10" s="57" t="str">
+      <c r="M10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(M$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="N10" s="57" t="str">
+      <c r="N10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(N$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="O10" s="60" t="str">
+      <c r="O10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(O$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="P10" s="57" t="str">
+      <c r="P10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(P$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Q10" s="29" t="str">
+      <c r="Q10" s="55" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Q$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="R10" s="29" t="str">
+      <c r="R10" s="55" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(R$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="S10" s="29" t="str">
+      <c r="S10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(S$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="T10" s="29" t="str">
+      <c r="T10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(T$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="U10" s="29" t="str">
+      <c r="U10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(U$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="V10" s="29" t="str">
+      <c r="V10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(V$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="W10" s="29" t="str">
+      <c r="W10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(W$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="X10" s="29" t="str">
+      <c r="X10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(X$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Y10" s="29" t="str">
+      <c r="Y10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Y$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Z10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Z$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA10" s="29" t="str">
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AA$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AB10" s="29" t="str">
+      <c r="AB10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AB$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AC10" s="29" t="str">
+      <c r="AC10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AC$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AD10" s="29" t="str">
+      <c r="AD10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AD$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AE10" s="29" t="str">
+      <c r="AE10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AE$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AF10" s="29" t="str">
+      <c r="AF10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AF$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AG10" s="29" t="str">
+      <c r="AG10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AG$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AH10" s="29" t="str">
+      <c r="AH10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AH$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AI10" s="29" t="str">
+      <c r="AI10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AI$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ10" s="29" t="str">
+      <c r="AJ10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AJ$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AK10" s="29" t="str">
+      <c r="AK10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AK$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AL10" s="29" t="str">
+      <c r="AL10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AL$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AM10" s="29" t="str">
+      <c r="AM10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AM$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AN10" s="29" t="str">
+      <c r="AN10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AN$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AO10" s="29" t="str">
+      <c r="AO10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AO$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AP10" s="29" t="str">
+      <c r="AP10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AP$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ10" s="29" t="str">
+      <c r="AQ10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AQ$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AR10" s="29" t="str">
+      <c r="AR10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AR$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AS10" s="29" t="str">
+      <c r="AS10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AS$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AT10" s="29" t="str">
+      <c r="AT10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AT$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AU10" s="29" t="str">
+      <c r="AU10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AU$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AV10" s="29" t="str">
+      <c r="AV10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AV$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AW10" s="29" t="str">
+      <c r="AW10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AW$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AX10" s="29" t="str">
+      <c r="AX10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AX$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AY10" s="29" t="str">
+      <c r="AY10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AY$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ10" s="29" t="str">
+      <c r="AZ10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AZ$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BA10" s="29" t="str">
+      <c r="BA10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BA$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BB10" s="29" t="str">
+      <c r="BB10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BB$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BC10" s="29" t="str">
+      <c r="BC10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BC$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BD10" s="29" t="str">
+      <c r="BD10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BD$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BE10" s="29" t="str">
+      <c r="BE10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BE$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BF10" s="29" t="str">
+      <c r="BF10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BF$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BG10" s="29" t="str">
+      <c r="BG10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BG$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BH10" s="29" t="str">
+      <c r="BH10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BH$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BI10" s="29" t="str">
+      <c r="BI10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BI$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ10" s="29" t="str">
+      <c r="BJ10" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BJ$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BK10" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E10,$F10=1),Milestone_Marker,"")),"")</f>
+      <c r="BK10" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BL10" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BL$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BM10" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BM$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BN10" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BN$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BO10" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BO$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BP10" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BP$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BQ10" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BQ$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BR10" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BR$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BS10" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BS$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BT10" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BT$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BU10" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BU$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BV10" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BV$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BW10" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BW$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BX10" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BX$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BY10" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BZ10" s="75" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="31" t="s">
-        <v>39</v>
+      <c r="B11" s="73" t="s">
+        <v>29</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="24">
         <v>1</v>
       </c>
       <c r="E11" s="25">
-        <v>43563</v>
+        <v>43560</v>
       </c>
       <c r="F11" s="26">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G11" s="20"/>
-      <c r="H11" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(H$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I11" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(I$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J11" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(J$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="62" t="str">
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="53" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(L$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M11" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(M$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="N11" s="29" t="str">
+      <c r="N11" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(N$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="O11" s="59" t="str">
+      <c r="O11" s="56" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(O$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="P11" s="59" t="str">
+      <c r="P11" s="53" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(P$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Q11" s="62" t="str">
+      <c r="Q11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Q$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="R11" s="29" t="str">
+      <c r="R11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(R$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="S11" s="60" t="str">
+      <c r="S11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(S$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="T11" s="29" t="str">
+      <c r="T11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(T$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="U11" s="29" t="str">
+      <c r="U11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(U$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="V11" s="60" t="str">
+      <c r="V11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(V$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="W11" s="60" t="str">
+      <c r="W11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(W$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="X11" s="60" t="str">
+      <c r="X11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(X$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Y11" s="29" t="str">
+      <c r="Y11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Y$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Z11" s="29" t="str">
+      <c r="Z11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Z$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AA11" s="29" t="str">
+      <c r="AA11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AA$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AB11" s="29" t="str">
+      <c r="AB11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AB$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AC11" s="29" t="str">
+      <c r="AC11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AC$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AD11" s="29" t="str">
+      <c r="AD11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AD$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AE11" s="29" t="str">
+      <c r="AE11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AE$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AF11" s="60"/>
-      <c r="AG11" s="60"/>
-      <c r="AH11" s="29" t="str">
+      <c r="AF11" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AF$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG11" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AG$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AH$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AI11" s="29" t="str">
+      <c r="AI11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AI$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ11" s="29" t="str">
+      <c r="AJ11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AJ$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AK11" s="29" t="str">
+      <c r="AK11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AK$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AL11" s="29" t="str">
+      <c r="AL11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AL$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AM11" s="29" t="str">
+      <c r="AM11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AM$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AN11" s="29" t="str">
+      <c r="AN11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AN$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AO11" s="29" t="str">
+      <c r="AO11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AO$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AP11" s="29" t="str">
+      <c r="AP11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AP$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ11" s="29" t="str">
+      <c r="AQ11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AQ$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AR11" s="29" t="str">
+      <c r="AR11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AR$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AS11" s="29" t="str">
+      <c r="AS11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AS$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AT11" s="29" t="str">
+      <c r="AT11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AT$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AU11" s="29" t="str">
+      <c r="AU11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AU$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AV11" s="29" t="str">
+      <c r="AV11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AV$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AW11" s="29" t="str">
+      <c r="AW11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AW$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AX11" s="29" t="str">
+      <c r="AX11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AX$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AY11" s="29" t="str">
+      <c r="AY11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AY$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ11" s="29" t="str">
+      <c r="AZ11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AZ$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BA11" s="29" t="str">
+      <c r="BA11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BA$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BB11" s="29" t="str">
+      <c r="BB11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BB$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BC11" s="29" t="str">
+      <c r="BC11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BC$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BD11" s="29" t="str">
+      <c r="BD11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BD$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BE11" s="29" t="str">
+      <c r="BE11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BE$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BF11" s="29" t="str">
+      <c r="BF11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BF$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BG11" s="29" t="str">
+      <c r="BG11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BG$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BH11" s="29" t="str">
+      <c r="BH11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BH$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BI11" s="29" t="str">
+      <c r="BI11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BI$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ11" s="29" t="str">
+      <c r="BJ11" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BJ$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BK11" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
+      <c r="BK11" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BL11" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BL$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BM11" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BM$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BN11" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BN$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BO11" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BO$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BP11" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BP$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BQ11" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BQ$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BR11" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BR$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BS11" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BS$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BT11" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BT$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BU11" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BU$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BV11" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BV$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BW11" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BW$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BX11" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BX$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BY11" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BZ11" s="75" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="73" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="27"/>
@@ -3281,2807 +3494,3930 @@
         <v>1</v>
       </c>
       <c r="E12" s="25">
-        <v>43570</v>
+        <v>43563</v>
       </c>
       <c r="F12" s="26">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G12" s="20"/>
-      <c r="H12" s="29" t="str">
+      <c r="H12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(H$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="I12" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(I$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J12" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(J$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K12" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(K$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L12" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(L$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M12" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(M$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N12" s="29" t="str">
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="75" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(N$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Q$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R12" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(R$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S12" s="29" t="str">
+      <c r="O12" s="55" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(O$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P12" s="55" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(P$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="56" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(S$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="T12" s="29" t="str">
+      <c r="T12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(T$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="U12" s="29" t="str">
+      <c r="U12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(U$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="V12" s="60"/>
-      <c r="W12" s="29" t="str">
+      <c r="V12" s="56" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(V$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W12" s="56" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(W$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="X12" s="29" t="str">
+      <c r="X12" s="56" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(X$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="29" t="str">
+      <c r="Y12" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Y$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z12" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Z$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AA$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AB12" s="29" t="str">
+      <c r="AB12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AB$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="29" t="str">
+      <c r="AC12" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AC$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AD$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AE12" s="29" t="str">
+      <c r="AE12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AE$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AF12" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AF$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG12" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AG$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH12" s="29" t="str">
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AH$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AI12" s="29" t="str">
+      <c r="AI12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AI$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ12" s="29" t="str">
+      <c r="AJ12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AJ$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AK12" s="29" t="str">
+      <c r="AK12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AK$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AL12" s="29" t="str">
+      <c r="AL12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AL$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AM12" s="29" t="str">
+      <c r="AM12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AM$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AN12" s="29" t="str">
+      <c r="AN12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AN$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AO12" s="29" t="str">
+      <c r="AO12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AO$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AP12" s="29" t="str">
+      <c r="AP12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AP$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ12" s="29" t="str">
+      <c r="AQ12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AQ$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AR12" s="29" t="str">
+      <c r="AR12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AR$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AS12" s="29" t="str">
+      <c r="AS12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AS$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AT12" s="29" t="str">
+      <c r="AT12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AT$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AU12" s="29" t="str">
+      <c r="AU12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AU$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AV12" s="29" t="str">
+      <c r="AV12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AV$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AW12" s="29" t="str">
+      <c r="AW12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AW$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AX12" s="29" t="str">
+      <c r="AX12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AX$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AY12" s="29" t="str">
+      <c r="AY12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AY$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ12" s="29" t="str">
+      <c r="AZ12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AZ$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BA12" s="29" t="str">
+      <c r="BA12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BA$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BB12" s="29" t="str">
+      <c r="BB12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BB$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BC12" s="29" t="str">
+      <c r="BC12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BC$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BD12" s="29" t="str">
+      <c r="BD12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BD$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BE12" s="29" t="str">
+      <c r="BE12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BE$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BF12" s="29" t="str">
+      <c r="BF12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BF$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BG12" s="29" t="str">
+      <c r="BG12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BG$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BH12" s="29" t="str">
+      <c r="BH12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BH$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BI12" s="29" t="str">
+      <c r="BI12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BI$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ12" s="29" t="str">
+      <c r="BJ12" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BJ$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BK12" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
+      <c r="BK12" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BL12" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BL$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BM12" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BM$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BN12" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BN$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BO12" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BO$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BP12" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BP$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BQ12" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BQ$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BR12" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BR$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BS12" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BS$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BT12" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BT$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BU12" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BU$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BV12" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BV$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BW12" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BW$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BX12" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BX$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BY12" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BZ12" s="75" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="64" t="s">
-        <v>34</v>
+      <c r="B13" s="73" t="s">
+        <v>41</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="24">
         <v>1</v>
       </c>
       <c r="E13" s="25">
+        <v>43600</v>
+      </c>
+      <c r="F13" s="26">
+        <v>4</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(H$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(I$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(J$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(K$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L13" s="75" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(L$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M13" s="75" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(M$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="75" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(R$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S13" s="75" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(S$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(T$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(U$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V13" s="56"/>
+      <c r="W13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(W$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(X$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AA$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AB$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AD$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AE$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AF$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AG$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AH$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AI$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AJ$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AK$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AL$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AM$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AN$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AO$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AP$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AQ$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AR$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AS$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AT$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AU$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AV$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AW$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AX$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AY$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AZ$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BA$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BB$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BC$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BD$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BE$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BF$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BG$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BH$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BI$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BJ$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK13" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BL13" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BL$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BM13" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BM$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BN13" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BN$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BO13" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BO$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BP13" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BP$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BQ13" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BQ$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BR13" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BR$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BS13" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BS$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BT13" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BT$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BU13" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BU$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BV13" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BV$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BW13" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BW$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BX13" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BX$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BY13" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BZ13" s="75" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="24">
+        <v>1</v>
+      </c>
+      <c r="E14" s="25">
         <v>43578</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F14" s="26">
         <v>3</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="29" t="str">
+      <c r="G14" s="20"/>
+      <c r="H14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(H$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="I13" s="29" t="str">
+      <c r="I14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(I$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="J13" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned To]])=0,"",IF(AND(J$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K13" s="29" t="str">
+      <c r="J14" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(J$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(K$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="L13" s="29" t="str">
+      <c r="L14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(L$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="M13" s="29" t="str">
+      <c r="M14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(M$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="N13" s="29" t="str">
+      <c r="N14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(N$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="O13" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned To]])=0,"",IF(AND(O$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P13" s="29" t="str">
+      <c r="O14" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(O$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(P$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Q13" s="29" t="str">
+      <c r="Q14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(Q$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="R13" s="29" t="str">
+      <c r="R14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(R$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="S13" s="29" t="str">
+      <c r="S14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(S$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="T13" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned To]])=0,"",IF(AND(T$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U13" s="29" t="str">
+      <c r="T14" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(T$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(U$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="V13" s="29" t="str">
+      <c r="V14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(V$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="W13" s="29" t="str">
+      <c r="W14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(W$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="X13" s="29" t="str">
+      <c r="X14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(X$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Y13" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned To]])=0,"",IF(AND(Y$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z13" s="29" t="str">
+      <c r="Y14" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(Y$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(Z$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AA13" s="29" t="str">
+      <c r="AA14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(AA$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AB13" s="29" t="str">
+      <c r="AB14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AB$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AC13" s="29" t="str">
+      <c r="AC14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(AC$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AD13" s="60"/>
-      <c r="AE13" s="60"/>
-      <c r="AF13" s="60"/>
-      <c r="AG13" s="29" t="str">
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AG$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AH13" s="29" t="str">
+      <c r="AH14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(AH$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AI13" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned To]])=0,"",IF(AND(AI$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ13" s="29" t="str">
+      <c r="AI14" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(AI$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(AJ$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AK13" s="29" t="str">
+      <c r="AK14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(AK$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AL13" s="29" t="str">
+      <c r="AL14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AL$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AM13" s="29" t="str">
+      <c r="AM14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(AM$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AN13" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned To]])=0,"",IF(AND(AN$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO13" s="29" t="str">
+      <c r="AN14" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(AN$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(AO$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AP13" s="29" t="str">
+      <c r="AP14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(AP$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ13" s="29" t="str">
+      <c r="AQ14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AQ$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AR13" s="29" t="str">
+      <c r="AR14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(AR$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AS13" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned To]])=0,"",IF(AND(AS$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT13" s="29" t="str">
+      <c r="AS14" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(AS$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(AT$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AU13" s="29" t="str">
+      <c r="AU14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(AU$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AV13" s="29" t="str">
+      <c r="AV14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AV$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AW13" s="29" t="str">
+      <c r="AW14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(AW$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AX13" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned To]])=0,"",IF(AND(AX$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY13" s="29" t="str">
+      <c r="AX14" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(AX$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(AY$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ13" s="29" t="str">
+      <c r="AZ14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(AZ$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BA13" s="29" t="str">
+      <c r="BA14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BA$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BB13" s="29" t="str">
+      <c r="BB14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BB$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BC13" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned To]])=0,"",IF(AND(BC$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD13" s="29" t="str">
+      <c r="BC14" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BC$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BD$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BE13" s="29" t="str">
+      <c r="BE14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BE$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BF13" s="29" t="str">
+      <c r="BF14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BF$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BG13" s="29" t="str">
+      <c r="BG14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BG$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BH13" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned To]])=0,"",IF(AND(BH$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI13" s="29" t="str">
+      <c r="BH14" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BH$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BI$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ13" s="29" t="str">
+      <c r="BJ14" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BJ$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BK13" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
+      <c r="BK14" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BL14" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BL$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BM14" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BM$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BN14" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BN$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BO14" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BO$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BP14" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BP$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BQ14" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BQ$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BR14" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BR$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BS14" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BS$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BT14" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BT$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BU14" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BU$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BV14" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BV$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BW14" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BW$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BX14" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BX$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BY14" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BZ14" s="75" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(H$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(I$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(J$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(K$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(L$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(M$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(N$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(O$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(P$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Q$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(R$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(S$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(T$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(U$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(V$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(W$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(X$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Y$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Z$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AA$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AB$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AC$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AD$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AE$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AF$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AG$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AH$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AI$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AJ$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AK$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AL$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AM$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AN$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AO$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AP$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AQ$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AR$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AS$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AT$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AU$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AV$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AW$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AX$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AY$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AZ$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BA$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BB$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BC$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BD$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BE$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BF$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BG$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BH14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BH$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BI$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BJ14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BJ$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BK14" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E14,$F14=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="31" t="s">
-        <v>27</v>
+      <c r="B15" s="73" t="s">
+        <v>43</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="24">
         <v>1</v>
       </c>
       <c r="E15" s="25">
-        <v>43581</v>
+        <v>43598</v>
       </c>
       <c r="F15" s="26">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G15" s="20"/>
-      <c r="H15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(H$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(I$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(J$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(K$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(L$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(M$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(N$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(O$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(P$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Q$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(R$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(S$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(T$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(U$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(V$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(W$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(X$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Y$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Z$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AA$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AB$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AC$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AD$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AE$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AF$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AH$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AI$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ15" s="60"/>
-      <c r="AK15" s="60"/>
-      <c r="AL15" s="63"/>
-      <c r="AM15" s="60"/>
-      <c r="AN15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AN$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AO$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AP$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ15" s="60"/>
-      <c r="AR15" s="60"/>
-      <c r="AS15" s="60"/>
-      <c r="AT15" s="60"/>
-      <c r="AU15" s="60"/>
-      <c r="AV15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AV$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AW$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AX$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AY$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AZ$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BA$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BB$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BC$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BD$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BE$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BF$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BG$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BH15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BH$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI15" s="60"/>
-      <c r="BJ15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BJ$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BK15" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E15,$F15=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="75"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="28"/>
+      <c r="AN15" s="28"/>
+      <c r="AO15" s="28"/>
+      <c r="AP15" s="28"/>
+      <c r="AQ15" s="28"/>
+      <c r="AR15" s="28"/>
+      <c r="AS15" s="28"/>
+      <c r="AT15" s="28"/>
+      <c r="AU15" s="28"/>
+      <c r="AV15" s="28"/>
+      <c r="AW15" s="28"/>
+      <c r="AX15" s="56"/>
+      <c r="AY15" s="56"/>
+      <c r="AZ15" s="56"/>
+      <c r="BA15" s="56"/>
+      <c r="BB15" s="56"/>
+      <c r="BC15" s="56"/>
+      <c r="BD15" s="56"/>
+      <c r="BE15" s="28"/>
+      <c r="BF15" s="28"/>
+      <c r="BG15" s="28"/>
+      <c r="BH15" s="28"/>
+      <c r="BI15" s="28"/>
+      <c r="BJ15" s="28"/>
+      <c r="BK15" s="28"/>
+      <c r="BL15" s="28"/>
+      <c r="BM15" s="28"/>
+      <c r="BN15" s="28"/>
+      <c r="BO15" s="28"/>
+      <c r="BP15" s="28"/>
+      <c r="BQ15" s="28"/>
+      <c r="BR15" s="28"/>
+      <c r="BS15" s="28"/>
+      <c r="BT15" s="28"/>
+      <c r="BU15" s="28"/>
+      <c r="BV15" s="28"/>
+      <c r="BW15" s="28"/>
+      <c r="BX15" s="28"/>
+      <c r="BY15" s="28"/>
+      <c r="BZ15" s="75"/>
     </row>
-    <row r="16" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="24">
-        <v>1</v>
-      </c>
-      <c r="E16" s="25">
-        <v>43581</v>
-      </c>
-      <c r="F16" s="26">
-        <v>11</v>
-      </c>
+    <row r="16" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(H$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(I$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(J$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(K$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(L$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(M$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(N$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(O$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(P$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Q$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(R$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(S$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(T$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(U$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(V$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(W$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(X$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Y$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Z$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AA$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AB$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AC$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AD$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AE$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AF$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG16" s="60"/>
-      <c r="AH16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AH$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AI$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AJ$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AK$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AL$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM16" s="60"/>
-      <c r="AN16" s="60"/>
-      <c r="AO16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AO$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AP$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ16" s="60"/>
-      <c r="AR16" s="60"/>
-      <c r="AS16" s="60"/>
-      <c r="AT16" s="60"/>
-      <c r="AU16" s="60"/>
-      <c r="AV16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AV$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AW$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX16" s="60"/>
-      <c r="AY16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AY$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AZ$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BA$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BB$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BC$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BD$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BE$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BF$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BG$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BH16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BH$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BI$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BJ16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BJ$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BK16" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+      <c r="H16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(H$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(I$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(J$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(K$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(L$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(M$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(N$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(O$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(P$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Q$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(R$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(S$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(T$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(U$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(V$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(W$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(X$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Y$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Z$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AA$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AB$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AC$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AD$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AE$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AF$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AG$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AH$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AI$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AJ$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AK$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AL$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AM$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AN$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AO$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AP$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AQ$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AR$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AS$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AT$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AU$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AV$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AW$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AX$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AY$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AZ$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BA$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BB$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BC$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BD$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BE$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BF$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BG$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BH$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BI$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BJ$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BL16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BL$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BM16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BM$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BN16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BN$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BO16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BO$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BP16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BP$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BQ16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BQ$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BR16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BR$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BS16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BS$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BT16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BT$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BU16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BU$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BV16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BV$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BW16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BW$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BX16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BX$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BY16" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BZ16" s="75" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
-      <c r="B17" s="31" t="s">
-        <v>35</v>
+      <c r="B17" s="29" t="s">
+        <v>23</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="24">
         <v>1</v>
       </c>
       <c r="E17" s="25">
-        <v>43599</v>
+        <v>43581</v>
       </c>
       <c r="F17" s="26">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G17" s="20"/>
-      <c r="H17" s="29" t="str">
+      <c r="H17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(H$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="I17" s="29" t="str">
+      <c r="I17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(I$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="J17" s="29" t="str">
+      <c r="J17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(J$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="K17" s="29" t="str">
+      <c r="K17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(K$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="L17" s="29" t="str">
+      <c r="L17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(L$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="M17" s="29" t="str">
+      <c r="M17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(M$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="N17" s="29" t="str">
+      <c r="N17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(N$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="O17" s="29" t="str">
+      <c r="O17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(O$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="P17" s="29" t="str">
+      <c r="P17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(P$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Q17" s="29" t="str">
+      <c r="Q17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Q$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="R17" s="29" t="str">
+      <c r="R17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(R$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="S17" s="29" t="str">
+      <c r="S17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(S$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="T17" s="29" t="str">
+      <c r="T17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(T$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="U17" s="29" t="str">
+      <c r="U17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(U$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="V17" s="29" t="str">
+      <c r="V17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(V$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="W17" s="29" t="str">
+      <c r="W17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(W$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="X17" s="29" t="str">
+      <c r="X17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(X$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Y17" s="29" t="str">
+      <c r="Y17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Y$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Z17" s="29" t="str">
+      <c r="Z17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Z$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AA17" s="29" t="str">
+      <c r="AA17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AA$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AB17" s="29" t="str">
+      <c r="AB17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AB$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AC17" s="29" t="str">
+      <c r="AC17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AC$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AD17" s="29" t="str">
+      <c r="AD17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AD$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AE17" s="29" t="str">
+      <c r="AE17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AE$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AF17" s="29" t="str">
+      <c r="AF17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AF$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AG17" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AG$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH17" s="29" t="str">
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AH$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AI17" s="29" t="str">
+      <c r="AI17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AI$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ17" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AJ$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK17" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AK$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL17" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AL$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM17" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AM$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN17" s="29" t="str">
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="57"/>
+      <c r="AM17" s="56"/>
+      <c r="AN17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AN$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AO17" s="29" t="str">
+      <c r="AO17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AO$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AP17" s="29" t="str">
+      <c r="AP17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AP$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ17" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AQ$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR17" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AR$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS17" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AS$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT17" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AT$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU17" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AU$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV17" s="29" t="str">
+      <c r="AQ17" s="56"/>
+      <c r="AR17" s="56"/>
+      <c r="AS17" s="56"/>
+      <c r="AT17" s="56"/>
+      <c r="AU17" s="56"/>
+      <c r="AV17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AV$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AW17" s="29" t="str">
+      <c r="AW17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AW$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AX17" s="29" t="str">
+      <c r="AX17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AX$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AY17" s="60"/>
-      <c r="AZ17" s="60"/>
-      <c r="BA17" s="60"/>
-      <c r="BB17" s="60"/>
-      <c r="BC17" s="29" t="str">
+      <c r="AY17" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AY$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ17" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AZ$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA17" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BA$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB17" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BB$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BC$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BD17" s="29" t="str">
+      <c r="BD17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BD$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BE17" s="60"/>
-      <c r="BF17" s="29" t="str">
+      <c r="BE17" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BE$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BF$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BG17" s="29" t="str">
+      <c r="BG17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BG$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BH17" s="29" t="str">
+      <c r="BH17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BH$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BI17" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BI$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BJ17" s="29" t="str">
+      <c r="BI17" s="56"/>
+      <c r="BJ17" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BJ$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BK17" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
+      <c r="BK17" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BL17" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BL$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BM17" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BM$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BN17" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BN$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BO17" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BO$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BP17" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BP$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BQ17" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BQ$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BR17" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BR$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BS17" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BS$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BT17" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BT$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BU17" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BU$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BV17" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BV$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BW17" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BW$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BX17" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BX$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BY17" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BZ17" s="75" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
-      <c r="B18" s="31" t="s">
-        <v>41</v>
+      <c r="B18" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="24">
         <v>1</v>
       </c>
       <c r="E18" s="25">
-        <v>43592</v>
+        <v>43581</v>
       </c>
       <c r="F18" s="26">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G18" s="20"/>
-      <c r="H18" s="29" t="str">
+      <c r="H18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(H$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="I18" s="29" t="str">
+      <c r="I18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(I$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="J18" s="29" t="str">
+      <c r="J18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(J$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="K18" s="29" t="str">
+      <c r="K18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(K$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="L18" s="29" t="str">
+      <c r="L18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(L$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="M18" s="29" t="str">
+      <c r="M18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(M$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="N18" s="29" t="str">
+      <c r="N18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(N$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="O18" s="29" t="str">
+      <c r="O18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(O$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="P18" s="29" t="str">
+      <c r="P18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(P$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Q18" s="29" t="str">
+      <c r="Q18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Q$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="R18" s="29" t="str">
+      <c r="R18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(R$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="S18" s="29" t="str">
+      <c r="S18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(S$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="T18" s="29" t="str">
+      <c r="T18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(T$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="U18" s="29" t="str">
+      <c r="U18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(U$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="V18" s="29" t="str">
+      <c r="V18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(V$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="W18" s="29" t="str">
+      <c r="W18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(W$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="X18" s="29" t="str">
+      <c r="X18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(X$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Y18" s="29" t="str">
+      <c r="Y18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Y$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Z18" s="29" t="str">
+      <c r="Z18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Z$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AA18" s="29" t="str">
+      <c r="AA18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AA$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AB18" s="29" t="str">
+      <c r="AB18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AB$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AC18" s="29" t="str">
+      <c r="AC18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AC$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AD18" s="29" t="str">
+      <c r="AD18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AD$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AE18" s="29" t="str">
+      <c r="AE18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AE$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AF18" s="29" t="str">
+      <c r="AF18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AF$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AG18" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AG$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH18" s="29" t="str">
+      <c r="AG18" s="56"/>
+      <c r="AH18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AH$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AI18" s="29" t="str">
+      <c r="AI18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AI$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ18" s="29" t="str">
+      <c r="AJ18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AJ$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AK18" s="29" t="str">
+      <c r="AK18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AK$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AL18" s="29" t="str">
+      <c r="AL18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AL$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AM18" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(E20AND(AM$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN18" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AN$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO18" s="29" t="str">
+      <c r="AM18" s="56"/>
+      <c r="AN18" s="56"/>
+      <c r="AO18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AO$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AP18" s="29" t="str">
+      <c r="AP18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AP$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ18" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AQ$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR18" s="60"/>
-      <c r="AS18" s="60"/>
-      <c r="AT18" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AT$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU18" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AU$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV18" s="29" t="str">
+      <c r="AQ18" s="56"/>
+      <c r="AR18" s="56"/>
+      <c r="AS18" s="56"/>
+      <c r="AT18" s="56"/>
+      <c r="AU18" s="56"/>
+      <c r="AV18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AV$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AW18" s="29" t="str">
+      <c r="AW18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AW$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AX18" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AX$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY18" s="29" t="str">
+      <c r="AX18" s="56"/>
+      <c r="AY18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AY$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ18" s="29" t="str">
+      <c r="AZ18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AZ$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BA18" s="29" t="str">
+      <c r="BA18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BA$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BB18" s="29" t="str">
+      <c r="BB18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BB$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BC18" s="29" t="str">
+      <c r="BC18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BC$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BD18" s="29" t="str">
+      <c r="BD18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BD$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BE18" s="29" t="str">
+      <c r="BE18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BE$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BF18" s="29" t="str">
+      <c r="BF18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BF$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BG18" s="29" t="str">
+      <c r="BG18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BG$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BH18" s="29" t="str">
+      <c r="BH18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BH$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BI18" s="29" t="str">
+      <c r="BI18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BI$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ18" s="29" t="str">
+      <c r="BJ18" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BJ$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BK18" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
+      <c r="BK18" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BL18" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BL$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BM18" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BM$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BN18" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BN$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BO18" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BO$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BP18" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BP$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BQ18" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BQ$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BR18" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BR$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BS18" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BS$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BT18" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BT$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BU18" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BU$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BV18" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BV$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BW18" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BW$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BX18" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BX$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BY18" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BZ18" s="75" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
-      <c r="B19" s="31" t="s">
-        <v>42</v>
+      <c r="B19" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="24">
         <v>1</v>
       </c>
       <c r="E19" s="25">
-        <v>43588</v>
+        <v>43599</v>
       </c>
       <c r="F19" s="26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19" s="20"/>
-      <c r="H19" s="29" t="str">
+      <c r="H19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(H$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="I19" s="29" t="str">
+      <c r="I19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(I$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="J19" s="29" t="str">
+      <c r="J19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(J$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="K19" s="29" t="str">
+      <c r="K19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(K$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="L19" s="29" t="str">
+      <c r="L19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(L$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="M19" s="29" t="str">
+      <c r="M19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(M$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="N19" s="29" t="str">
+      <c r="N19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(N$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="O19" s="29" t="str">
+      <c r="O19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(O$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="P19" s="29" t="str">
+      <c r="P19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(P$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Q19" s="29" t="str">
+      <c r="Q19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Q$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="R19" s="29" t="str">
+      <c r="R19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(R$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="S19" s="29" t="str">
+      <c r="S19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(S$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="T19" s="29" t="str">
+      <c r="T19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(T$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="U19" s="29" t="str">
+      <c r="U19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(U$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="V19" s="29" t="str">
+      <c r="V19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(V$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="W19" s="29" t="str">
+      <c r="W19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(W$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="X19" s="29" t="str">
+      <c r="X19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(X$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Y19" s="29" t="str">
+      <c r="Y19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Y$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Z19" s="29" t="str">
+      <c r="Z19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Z$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AA19" s="29" t="str">
+      <c r="AA19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AA$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AB19" s="29" t="str">
+      <c r="AB19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AB$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AC19" s="29" t="str">
+      <c r="AC19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AC$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AD19" s="29" t="str">
+      <c r="AD19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AD$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AE19" s="29" t="str">
+      <c r="AE19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AE$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AF19" s="29" t="str">
+      <c r="AF19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AF$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AG19" s="29" t="str">
+      <c r="AG19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AG$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AH19" s="29" t="str">
+      <c r="AH19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AH$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AI19" s="29" t="str">
+      <c r="AI19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AI$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ19" s="29" t="str">
+      <c r="AJ19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AJ$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AK19" s="29" t="str">
+      <c r="AK19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AK$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AL19" s="29" t="str">
+      <c r="AL19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AL$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AM19" s="29" t="str">
+      <c r="AM19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AM$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AN19" s="60"/>
-      <c r="AO19" s="29" t="str">
+      <c r="AN19" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AN$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AO$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AP19" s="29" t="str">
+      <c r="AP19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AP$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ19" s="60"/>
-      <c r="AR19" s="60"/>
-      <c r="AS19" s="60"/>
-      <c r="AT19" s="29" t="str">
+      <c r="AQ19" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AQ$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR19" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AR$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS19" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AS$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AT$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AU19" s="29" t="str">
+      <c r="AU19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AU$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AV19" s="29" t="str">
+      <c r="AV19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AV$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AW19" s="29" t="str">
+      <c r="AW19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AW$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AX19" s="29" t="str">
+      <c r="AX19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AX$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AY19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AY$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AZ$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BA$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BB$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC19" s="29" t="str">
+      <c r="AY19" s="56"/>
+      <c r="AZ19" s="56"/>
+      <c r="BA19" s="56"/>
+      <c r="BB19" s="56"/>
+      <c r="BC19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BC$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BD19" s="29" t="str">
+      <c r="BD19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BD$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BE19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BE$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF19" s="29" t="str">
+      <c r="BE19" s="56"/>
+      <c r="BF19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BF$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BG19" s="29" t="str">
+      <c r="BG19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BG$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BH19" s="29" t="str">
+      <c r="BH19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BH$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BI19" s="29" t="str">
+      <c r="BI19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BI$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ19" s="29" t="str">
+      <c r="BJ19" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BJ$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BK19" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
+      <c r="BK19" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BL19" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BL$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BM19" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BM$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BN19" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BN$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BO19" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BO$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BP19" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BP$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BQ19" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BQ$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BR19" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BR$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BS19" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BS$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BT19" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BT$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BU19" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BU$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BV19" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BV$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BW19" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BW$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BX19" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BX$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BY19" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BZ19" s="75" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="31" t="s">
-        <v>29</v>
+      <c r="B20" s="29" t="s">
+        <v>30</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="24">
         <v>1</v>
       </c>
       <c r="E20" s="25">
-        <v>43587</v>
+        <v>43592</v>
       </c>
       <c r="F20" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="20"/>
-      <c r="H20" s="29" t="str">
+      <c r="H20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(H$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="I20" s="29" t="str">
+      <c r="I20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(I$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="J20" s="29" t="str">
+      <c r="J20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(J$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="K20" s="29" t="str">
+      <c r="K20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(K$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="L20" s="29" t="str">
+      <c r="L20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(L$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="M20" s="29" t="str">
+      <c r="M20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(M$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="N20" s="29" t="str">
+      <c r="N20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(N$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="O20" s="29" t="str">
+      <c r="O20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(O$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="P20" s="29" t="str">
+      <c r="P20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(P$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Q20" s="29" t="str">
+      <c r="Q20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Q$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="R20" s="29" t="str">
+      <c r="R20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(R$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="S20" s="29" t="str">
+      <c r="S20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(S$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="T20" s="29" t="str">
+      <c r="T20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(T$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="U20" s="29" t="str">
+      <c r="U20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(U$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="V20" s="29" t="str">
+      <c r="V20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(V$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="W20" s="29" t="str">
+      <c r="W20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(W$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="X20" s="29" t="str">
+      <c r="X20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(X$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Y20" s="29" t="str">
+      <c r="Y20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Y$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Z20" s="29" t="str">
+      <c r="Z20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Z$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AA20" s="29" t="str">
+      <c r="AA20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AA$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AB20" s="29" t="str">
+      <c r="AB20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AB$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AC20" s="29" t="str">
+      <c r="AC20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AC$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AD20" s="29" t="str">
+      <c r="AD20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AD$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AE20" s="29" t="str">
+      <c r="AE20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AE$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AF20" s="29" t="str">
+      <c r="AF20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AF$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AG20" s="29" t="str">
+      <c r="AG20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AG$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AH20" s="29" t="str">
+      <c r="AH20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AH$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AI20" s="29" t="str">
+      <c r="AI20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AI$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ20" s="29" t="str">
+      <c r="AJ20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AJ$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AK20" s="29" t="str">
+      <c r="AK20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AK$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AL20" s="29" t="str">
+      <c r="AL20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AL$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AM20" s="60"/>
-      <c r="AN20" s="29" t="str">
+      <c r="AM20" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(E20AND(AM$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AN$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AO20" s="29" t="str">
+      <c r="AO20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AO$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AP20" s="29" t="str">
+      <c r="AP20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AP$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ20" s="29" t="str">
+      <c r="AQ20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AQ$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AR20" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AR$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS20" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AS$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT20" s="29" t="str">
+      <c r="AR20" s="56"/>
+      <c r="AS20" s="56"/>
+      <c r="AT20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AT$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AU20" s="29" t="str">
+      <c r="AU20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AU$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AV20" s="29" t="str">
+      <c r="AV20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AV$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AW20" s="29" t="str">
+      <c r="AW20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AW$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AX20" s="29" t="str">
+      <c r="AX20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AX$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AY20" s="29" t="str">
+      <c r="AY20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AY$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ20" s="29" t="str">
+      <c r="AZ20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AZ$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BA20" s="29" t="str">
+      <c r="BA20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BA$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BB20" s="29" t="str">
+      <c r="BB20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BB$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BC20" s="29" t="str">
+      <c r="BC20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BC$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BD20" s="29" t="str">
+      <c r="BD20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BD$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BE20" s="29" t="str">
+      <c r="BE20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BE$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BF20" s="29" t="str">
+      <c r="BF20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BF$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BG20" s="29" t="str">
+      <c r="BG20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BG$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BH20" s="29" t="str">
+      <c r="BH20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BH$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BI20" s="29" t="str">
+      <c r="BI20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BI$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BJ20" s="29" t="str">
+      <c r="BJ20" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BJ$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BK20" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
+      <c r="BK20" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BL20" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BL$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BM20" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BM$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BN20" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BN$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BO20" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BO$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BP20" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BP$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BQ20" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BQ$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BR20" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BR$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BS20" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BS$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BT20" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BT$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BU20" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BU$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BV20" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BV$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BW20" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BW$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BX20" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BX$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BY20" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BZ20" s="75" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
-      <c r="B21" s="31" t="s">
-        <v>30</v>
+      <c r="B21" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="24">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E21" s="25">
-        <v>43587</v>
+        <v>43588</v>
       </c>
       <c r="F21" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G21" s="20"/>
-      <c r="H21" s="29" t="str">
+      <c r="H21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(H$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="I21" s="29" t="str">
+      <c r="I21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(I$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="J21" s="29" t="str">
+      <c r="J21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(J$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="K21" s="29" t="str">
+      <c r="K21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(K$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="L21" s="29" t="str">
+      <c r="L21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(L$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="M21" s="29" t="str">
+      <c r="M21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(M$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="N21" s="29" t="str">
+      <c r="N21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(N$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="O21" s="29" t="str">
+      <c r="O21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(O$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="P21" s="29" t="str">
+      <c r="P21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(P$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Q21" s="29" t="str">
+      <c r="Q21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Q$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="R21" s="29" t="str">
+      <c r="R21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(R$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="S21" s="29" t="str">
+      <c r="S21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(S$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="T21" s="29" t="str">
+      <c r="T21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(T$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="U21" s="29" t="str">
+      <c r="U21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(U$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="V21" s="29" t="str">
+      <c r="V21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(V$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="W21" s="29" t="str">
+      <c r="W21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(W$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="X21" s="29" t="str">
+      <c r="X21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(X$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Y21" s="29" t="str">
+      <c r="Y21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Y$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="Z21" s="29" t="str">
+      <c r="Z21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Z$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AA21" s="29" t="str">
+      <c r="AA21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AA$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AB21" s="29" t="str">
+      <c r="AB21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AB$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AC21" s="29" t="str">
+      <c r="AC21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AC$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AD21" s="29" t="str">
+      <c r="AD21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AD$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AE21" s="29" t="str">
+      <c r="AE21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AE$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AF21" s="29" t="str">
+      <c r="AF21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AF$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AG21" s="29" t="str">
+      <c r="AG21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AG$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AH21" s="29" t="str">
+      <c r="AH21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AH$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AI21" s="29" t="str">
+      <c r="AI21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AI$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AJ21" s="29" t="str">
+      <c r="AJ21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AJ$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AK21" s="60"/>
-      <c r="AL21" s="29" t="str">
+      <c r="AK21" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AK$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AL$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AM21" s="29" t="str">
+      <c r="AM21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AM$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AN21" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AN$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO21" s="29" t="str">
+      <c r="AN21" s="56"/>
+      <c r="AO21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AO$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AP21" s="29" t="str">
+      <c r="AP21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AP$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AQ21" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AQ$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR21" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AR$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS21" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AS$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT21" s="29" t="str">
+      <c r="AQ21" s="56"/>
+      <c r="AR21" s="56"/>
+      <c r="AS21" s="56"/>
+      <c r="AT21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AT$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AU21" s="29" t="str">
+      <c r="AU21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AU$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AV21" s="29" t="str">
+      <c r="AV21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AV$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AW21" s="29" t="str">
+      <c r="AW21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AW$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AX21" s="60"/>
-      <c r="AY21" s="29" t="str">
+      <c r="AX21" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AX$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AY$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="AZ21" s="29" t="str">
+      <c r="AZ21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AZ$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BA21" s="29" t="str">
+      <c r="BA21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BA$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BB21" s="29" t="str">
+      <c r="BB21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BB$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BC21" s="29" t="str">
+      <c r="BC21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BC$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BD21" s="29" t="str">
+      <c r="BD21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BD$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BE21" s="60"/>
-      <c r="BF21" s="60"/>
-      <c r="BG21" s="29" t="str">
+      <c r="BE21" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BE$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF21" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BF$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BG$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BH21" s="29" t="str">
+      <c r="BH21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BH$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BI21" s="60"/>
-      <c r="BJ21" s="29" t="str">
+      <c r="BI21" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BI$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ21" s="28" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BJ$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BK21" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
+      <c r="BK21" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BL21" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BL$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BM21" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BM$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BN21" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BN$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BO21" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BO$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BP21" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BP$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BQ21" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BQ$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BR21" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BR$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BS21" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BS$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BT21" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BT$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BU21" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BU$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BV21" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BV$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BW21" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BW$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BX21" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BX$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BY21" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BZ21" s="75" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
-      <c r="B22" s="31" t="s">
-        <v>31</v>
+      <c r="B22" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="24">
+        <v>1</v>
+      </c>
+      <c r="E22" s="25">
+        <v>43587</v>
+      </c>
+      <c r="F22" s="26">
+        <v>1</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(H$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(I$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(J$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(K$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(L$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(M$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(N$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(O$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(P$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Q$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(R$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(S$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(T$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(U$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(V$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(W$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(X$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Y$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Z$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AA$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AB$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AC$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AD$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AE$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AF$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AG$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AH$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AI$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AJ$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AK$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AL$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM22" s="56"/>
+      <c r="AN22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AN$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AO$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AP$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AQ$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AR$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AS$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AT$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AU$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AV$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AW$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AX$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AY$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AZ$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BA$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BB$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BC$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BD$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BE$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BF$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BG$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BH$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BI$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BJ$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK22" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BL22" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BL$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BM22" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BM$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BN22" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BN$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BO22" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BO$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BP22" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BP$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BQ22" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BQ$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BR22" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BR$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BS22" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BS$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BT22" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BT$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BU22" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BU$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BV22" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BV$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BW22" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BW$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BX22" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BX$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BY22" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BZ22" s="75" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="E23" s="25">
+        <v>43587</v>
+      </c>
+      <c r="F23" s="26">
+        <v>3</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(H$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(I$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(J$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(K$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(L$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(M$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(N$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(O$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(P$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Q$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(R$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(S$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(T$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(U$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(V$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(W$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(X$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Y$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Z$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AA$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AB$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AC$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AD$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AE$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AF$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AG$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AH$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AI$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AJ$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK23" s="56"/>
+      <c r="AL23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AL$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AM$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AN$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AO$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AP$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AQ$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AR$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AS$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AT$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AU$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AV$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AW$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX23" s="56"/>
+      <c r="AY23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AY$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AZ$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BA$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BB$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BC$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BD$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE23" s="56"/>
+      <c r="BF23" s="56"/>
+      <c r="BG23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BG$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BH$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI23" s="56"/>
+      <c r="BJ23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BJ$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK23" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BL23" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BL$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BM23" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BM$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BN23" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BN$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BO23" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BO$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BP23" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BP$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BQ23" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BQ$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BR23" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BR$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BS23" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BS$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BT23" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BT$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BU23" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BU$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BV23" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BV$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BW23" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BW$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BX23" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BX$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BY23" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BZ23" s="75" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="77"/>
+      <c r="V24" s="77"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="77"/>
+      <c r="Y24" s="77"/>
+      <c r="Z24" s="77"/>
+      <c r="AA24" s="77"/>
+      <c r="AB24" s="77"/>
+      <c r="AC24" s="77"/>
+      <c r="AD24" s="77"/>
+      <c r="AE24" s="77"/>
+      <c r="AF24" s="77"/>
+      <c r="AG24" s="77"/>
+      <c r="AH24" s="77"/>
+      <c r="AI24" s="77"/>
+      <c r="AJ24" s="77"/>
+      <c r="AK24" s="77"/>
+      <c r="AL24" s="77"/>
+      <c r="AM24" s="77"/>
+      <c r="AN24" s="77"/>
+      <c r="AO24" s="77"/>
+      <c r="AP24" s="77"/>
+      <c r="AQ24" s="77"/>
+      <c r="AR24" s="77"/>
+      <c r="AS24" s="77"/>
+      <c r="AT24" s="77"/>
+      <c r="AU24" s="77"/>
+      <c r="AV24" s="77"/>
+      <c r="AW24" s="77"/>
+      <c r="AX24" s="77"/>
+      <c r="AY24" s="77"/>
+      <c r="AZ24" s="77"/>
+      <c r="BA24" s="77"/>
+      <c r="BB24" s="77"/>
+      <c r="BC24" s="77"/>
+      <c r="BD24" s="77"/>
+      <c r="BE24" s="77"/>
+      <c r="BF24" s="77"/>
+      <c r="BG24" s="77"/>
+      <c r="BH24" s="77"/>
+      <c r="BI24" s="77"/>
+      <c r="BJ24" s="77"/>
+      <c r="BK24" s="77"/>
+      <c r="BL24" s="77"/>
+      <c r="BM24" s="77"/>
+      <c r="BN24" s="77"/>
+      <c r="BO24" s="77"/>
+      <c r="BP24" s="77"/>
+      <c r="BQ24" s="77"/>
+      <c r="BR24" s="77"/>
+      <c r="BS24" s="77"/>
+      <c r="BT24" s="77"/>
+      <c r="BU24" s="77"/>
+      <c r="BV24" s="77"/>
+      <c r="BW24" s="77"/>
+      <c r="BX24" s="77"/>
+      <c r="BY24" s="77"/>
+      <c r="BZ24" s="77"/>
+    </row>
+    <row r="25" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="24">
         <v>0.7</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E25" s="25">
         <v>43607</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F25" s="26">
         <v>2</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(H$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(I$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(J$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(K$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(L$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(M$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(N$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(O$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(P$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Q$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(R$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(S$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(T$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(U$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(V$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(W$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(X$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Y$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Z$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AA$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AB$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AC$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AD$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AE$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AF$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AG$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AH$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AI$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AJ$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AK$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AL$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AM$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AN$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AO$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AP$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AQ$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AR$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AS$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AT$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AU$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AV$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AW$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AX$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AY$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AZ$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BA$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BB$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BC$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BD$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BE$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BF$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG22" s="60"/>
-      <c r="BH22" s="60"/>
-      <c r="BI22" s="60"/>
-      <c r="BJ22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BJ$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BK22" s="29" t="str">
-        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
+      <c r="G25" s="20"/>
+      <c r="H25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(H$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(I$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(J$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(K$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(L$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(M$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(N$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(O$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(P$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Q$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(R$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(S$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(T$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(U$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(V$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(W$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(X$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Y$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Z$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AA$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AB$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AC$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AD$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AE$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AF$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AG$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AH$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AI$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AJ$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AK$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AL$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AM$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AN$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AO$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AP$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AQ$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AR$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AS$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AT$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AU$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AV$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AW$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AX$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AY$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AZ$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BA$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BB$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BC$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BD$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BE$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BF$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG25" s="56"/>
+      <c r="BH25" s="56"/>
+      <c r="BI25" s="56"/>
+      <c r="BJ25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BJ$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BK25" s="28" t="str">
+        <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E27,$F27=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BL25" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BL$5=$E27,$F27=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BM25" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BM$5=$E27,$F27=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BN25" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BN$5=$E27,$F27=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BO25" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BO$5=$E27,$F27=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BP25" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BP$5=$E27,$F27=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BQ25" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BQ$5=$E27,$F27=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BR25" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BR$5=$E27,$F27=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BS25" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BS$5=$E27,$F27=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BT25" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BT$5=$E27,$F27=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BU25" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BU$5=$E27,$F27=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BV25" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Milestone Description]])=0,"",IF(AND(BV$5=$E27,$F27=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BW25" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Assigned ]])=0,"",IF(AND(BW$5=$E27,$F27=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BX25" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Progress]])=0,"",IF(AND(BX$5=$E27,$F27=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BY25" s="28" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E27,$F27=1),Milestone_Marker,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BZ25" s="75" t="str">
+        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E27,$F27=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(H$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(I$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(J$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(K$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(L$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(M$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(N$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(O$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(P$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Q$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(R$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(S$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(T$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(U$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(V$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(W$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(X$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Y$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(Z$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AA$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AB$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AC$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AD$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AE$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AF$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AG$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AH$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AI$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AJ$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AK$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AL$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AM$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AN$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AO$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AP$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AQ$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AR$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AS$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AT$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AU$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AV$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AW$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AX$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AY$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(AZ$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BA$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BB$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BC$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BD$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BE$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BF$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BG$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BH23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BH$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BI$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BJ23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BJ$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BK23" s="29" t="str">
-        <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BK$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
-        <v/>
-      </c>
+    <row r="26" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="E26" s="25">
+        <v>43621</v>
+      </c>
+      <c r="F26" s="26">
+        <v>5</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="76"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="76"/>
+      <c r="W26" s="76"/>
+      <c r="X26" s="76"/>
+      <c r="Y26" s="76"/>
+      <c r="Z26" s="76"/>
+      <c r="AA26" s="76"/>
+      <c r="AB26" s="76"/>
+      <c r="AC26" s="76"/>
+      <c r="AD26" s="76"/>
+      <c r="AE26" s="76"/>
+      <c r="AF26" s="76"/>
+      <c r="AG26" s="76"/>
+      <c r="AH26" s="76"/>
+      <c r="AI26" s="76"/>
+      <c r="AJ26" s="76"/>
+      <c r="AK26" s="76"/>
+      <c r="AL26" s="76"/>
+      <c r="AM26" s="76"/>
+      <c r="AN26" s="76"/>
+      <c r="AO26" s="76"/>
+      <c r="AP26" s="76"/>
+      <c r="AQ26" s="76"/>
+      <c r="AR26" s="76"/>
+      <c r="AS26" s="76"/>
+      <c r="AT26" s="76"/>
+      <c r="AU26" s="76"/>
+      <c r="AV26" s="76"/>
+      <c r="AW26" s="76"/>
+      <c r="AX26" s="76"/>
+      <c r="AY26" s="76"/>
+      <c r="AZ26" s="76"/>
+      <c r="BA26" s="76"/>
+      <c r="BB26" s="76"/>
+      <c r="BC26" s="76"/>
+      <c r="BD26" s="76"/>
+      <c r="BE26" s="76"/>
+      <c r="BF26" s="82"/>
+      <c r="BG26" s="19"/>
+      <c r="BH26" s="56"/>
+      <c r="BI26" s="56"/>
+      <c r="BJ26" s="56"/>
+      <c r="BK26" s="56"/>
+      <c r="BL26" s="56"/>
+      <c r="BM26" s="56"/>
+      <c r="BN26" s="56"/>
+      <c r="BO26" s="56"/>
+      <c r="BP26" s="56"/>
+      <c r="BQ26" s="56"/>
+      <c r="BR26" s="82"/>
+      <c r="BS26" s="82"/>
+      <c r="BT26" s="82"/>
+      <c r="BU26" s="82"/>
+      <c r="BV26" s="82"/>
+      <c r="BW26" s="82"/>
+      <c r="BX26" s="82"/>
+      <c r="BY26" s="82"/>
+      <c r="BZ26" s="82"/>
     </row>
-    <row r="24" spans="1:63" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
-      <c r="AK24" s="28"/>
-      <c r="AL24" s="28"/>
-      <c r="AM24" s="28"/>
-      <c r="AN24" s="28"/>
-      <c r="AO24" s="28"/>
-      <c r="AP24" s="28"/>
-      <c r="AQ24" s="28"/>
-      <c r="AR24" s="28"/>
-      <c r="AS24" s="28"/>
-      <c r="AT24" s="28"/>
-      <c r="AU24" s="28"/>
-      <c r="AV24" s="28"/>
-      <c r="AW24" s="28"/>
-      <c r="AX24" s="28"/>
-      <c r="AY24" s="28"/>
-      <c r="AZ24" s="28"/>
-      <c r="BA24" s="28"/>
-      <c r="BB24" s="28"/>
-      <c r="BC24" s="28"/>
-      <c r="BD24" s="28"/>
-      <c r="BE24" s="28"/>
-      <c r="BF24" s="28"/>
-      <c r="BG24" s="28"/>
-      <c r="BH24" s="28"/>
-      <c r="BI24" s="28"/>
-      <c r="BJ24" s="28"/>
-      <c r="BK24" s="28"/>
+    <row r="27" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="58"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="76"/>
+      <c r="T27" s="76"/>
+      <c r="U27" s="76"/>
+      <c r="V27" s="76"/>
+      <c r="W27" s="76"/>
+      <c r="X27" s="76"/>
+      <c r="Y27" s="76"/>
+      <c r="Z27" s="76"/>
+      <c r="AA27" s="76"/>
+      <c r="AB27" s="76"/>
+      <c r="AC27" s="76"/>
+      <c r="AD27" s="76"/>
+      <c r="AE27" s="76"/>
+      <c r="AF27" s="76"/>
+      <c r="AG27" s="76"/>
+      <c r="AH27" s="76"/>
+      <c r="AI27" s="76"/>
+      <c r="AJ27" s="76"/>
+      <c r="AK27" s="76"/>
+      <c r="AL27" s="76"/>
+      <c r="AM27" s="76"/>
+      <c r="AN27" s="76"/>
+      <c r="AO27" s="76"/>
+      <c r="AP27" s="76"/>
+      <c r="AQ27" s="76"/>
+      <c r="AR27" s="76"/>
+      <c r="AS27" s="76"/>
+      <c r="AT27" s="76"/>
+      <c r="AU27" s="76"/>
+      <c r="AV27" s="76"/>
+      <c r="AW27" s="76"/>
+      <c r="AX27" s="76"/>
+      <c r="AY27" s="76"/>
+      <c r="AZ27" s="76"/>
+      <c r="BA27" s="76"/>
+      <c r="BB27" s="76"/>
+      <c r="BC27" s="76"/>
+      <c r="BD27" s="76"/>
+      <c r="BE27" s="76"/>
+      <c r="BF27" s="82"/>
+      <c r="BG27" s="19"/>
+      <c r="BH27" s="19"/>
+      <c r="BI27" s="19"/>
+      <c r="BJ27" s="19"/>
+      <c r="BK27" s="82"/>
+      <c r="BL27" s="82"/>
+      <c r="BM27" s="82"/>
+      <c r="BN27" s="82"/>
+      <c r="BO27" s="82"/>
+      <c r="BP27" s="82"/>
+      <c r="BQ27" s="82"/>
+      <c r="BR27" s="82"/>
+      <c r="BS27" s="82"/>
+      <c r="BT27" s="82"/>
+      <c r="BU27" s="82"/>
+      <c r="BV27" s="82"/>
+      <c r="BW27" s="82"/>
+      <c r="BX27" s="82"/>
+      <c r="BY27" s="82"/>
+      <c r="BZ27" s="82"/>
     </row>
-    <row r="25" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="5"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="4"/>
+    <row r="28" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="83"/>
+      <c r="D28" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="E28" s="25">
+        <v>43621</v>
+      </c>
+      <c r="F28" s="26">
+        <v>7</v>
+      </c>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="76"/>
+      <c r="S28" s="76"/>
+      <c r="T28" s="76"/>
+      <c r="U28" s="76"/>
+      <c r="V28" s="76"/>
+      <c r="W28" s="76"/>
+      <c r="X28" s="76"/>
+      <c r="Y28" s="76"/>
+      <c r="Z28" s="76"/>
+      <c r="AA28" s="76"/>
+      <c r="AB28" s="76"/>
+      <c r="AC28" s="76"/>
+      <c r="AD28" s="76"/>
+      <c r="AE28" s="76"/>
+      <c r="AF28" s="76"/>
+      <c r="AG28" s="76"/>
+      <c r="AH28" s="76"/>
+      <c r="AI28" s="76"/>
+      <c r="AJ28" s="76"/>
+      <c r="AK28" s="76"/>
+      <c r="AL28" s="76"/>
+      <c r="AM28" s="76"/>
+      <c r="AN28" s="76"/>
+      <c r="AO28" s="76"/>
+      <c r="AP28" s="76"/>
+      <c r="AQ28" s="76"/>
+      <c r="AR28" s="76"/>
+      <c r="AS28" s="76"/>
+      <c r="AT28" s="76"/>
+      <c r="AU28" s="76"/>
+      <c r="AV28" s="76"/>
+      <c r="AW28" s="76"/>
+      <c r="AX28" s="76"/>
+      <c r="AY28" s="76"/>
+      <c r="AZ28" s="76"/>
+      <c r="BA28" s="76"/>
+      <c r="BB28" s="76"/>
+      <c r="BC28" s="76"/>
+      <c r="BD28" s="76"/>
+      <c r="BE28" s="76"/>
+      <c r="BF28" s="82"/>
+      <c r="BG28" s="19"/>
+      <c r="BH28" s="19"/>
+      <c r="BI28" s="19"/>
+      <c r="BJ28" s="19"/>
+      <c r="BK28" s="82"/>
+      <c r="BL28" s="82"/>
+      <c r="BM28" s="56"/>
+      <c r="BN28" s="56"/>
+      <c r="BO28" s="56"/>
+      <c r="BP28" s="56"/>
+      <c r="BQ28" s="56"/>
+      <c r="BR28" s="56"/>
+      <c r="BS28" s="56"/>
+      <c r="BT28" s="56"/>
+      <c r="BU28" s="56"/>
+      <c r="BV28" s="56"/>
+      <c r="BW28" s="56"/>
+      <c r="BX28" s="56"/>
+      <c r="BY28" s="56"/>
+      <c r="BZ28" s="56"/>
     </row>
-    <row r="26" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="6"/>
+    <row r="29" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="F29" s="14"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="76"/>
+      <c r="R29" s="76"/>
+      <c r="S29" s="76"/>
+      <c r="T29" s="76"/>
+      <c r="U29" s="76"/>
+      <c r="V29" s="76"/>
+      <c r="W29" s="76"/>
+      <c r="X29" s="76"/>
+      <c r="Y29" s="76"/>
+      <c r="Z29" s="76"/>
+      <c r="AA29" s="76"/>
+      <c r="AB29" s="76"/>
+      <c r="AC29" s="76"/>
+      <c r="AD29" s="76"/>
+      <c r="AE29" s="76"/>
+      <c r="AF29" s="76"/>
+      <c r="AG29" s="76"/>
+      <c r="AH29" s="76"/>
+      <c r="AI29" s="76"/>
+      <c r="AJ29" s="76"/>
+      <c r="AK29" s="76"/>
+      <c r="AL29" s="76"/>
+      <c r="AM29" s="76"/>
+      <c r="AN29" s="76"/>
+      <c r="AO29" s="76"/>
+      <c r="AP29" s="76"/>
+      <c r="AQ29" s="76"/>
+      <c r="AR29" s="76"/>
+      <c r="AS29" s="76"/>
+      <c r="AT29" s="76"/>
+      <c r="AU29" s="76"/>
+      <c r="AV29" s="76"/>
+      <c r="AW29" s="76"/>
+      <c r="AX29" s="76"/>
+      <c r="AY29" s="76"/>
+      <c r="AZ29" s="76"/>
+      <c r="BA29" s="76"/>
+      <c r="BB29" s="76"/>
+      <c r="BC29" s="76"/>
+      <c r="BD29" s="76"/>
+      <c r="BE29" s="76"/>
+      <c r="BF29" s="82"/>
+      <c r="BG29" s="19"/>
+      <c r="BH29" s="19"/>
+      <c r="BI29" s="19"/>
+      <c r="BJ29" s="19"/>
+      <c r="BK29" s="82"/>
+      <c r="BL29" s="82"/>
+      <c r="BM29" s="82"/>
+      <c r="BN29" s="82"/>
+      <c r="BO29" s="82"/>
+      <c r="BP29" s="82"/>
+      <c r="BQ29" s="82"/>
+      <c r="BR29" s="82"/>
+      <c r="BS29" s="82"/>
+      <c r="BT29" s="82"/>
+      <c r="BU29" s="82"/>
+      <c r="BV29" s="82"/>
+      <c r="BW29" s="82"/>
+      <c r="BX29" s="82"/>
+      <c r="BY29" s="82"/>
+      <c r="BZ29" s="82"/>
+    </row>
+    <row r="30" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6090,8 +7426,8 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="C4:D4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D23">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="D6:D26">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6104,29 +7440,72 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:BK8 H10:I10 K9 H11:J11 M11:N11 R11 H12:N12 Q12:U12 L10:N10 M9:P9 S9:Y9 T11:U11 Y11:AE11 P10:BK10 W12:X12 AA12:AB12 AD12:BK12 AG13:BK13 AH11:BK11 H13:AC13 AA9:BK9 H14:BK14 AH15:AI15 AN15:AP15 H15:AF16 AH16:AL16 AO16:AP16 AV15:BH15 AV16:AW16 AY16:BK16 H20:AL20 AN20:BK20 H19:AM19 AO19:AP19 H17:AX17 H18:AQ18 AT18:BK19 BC17:BD17 BF17:BK17 H21:AJ21 AY21:BD21 BG21:BH21 AL21:AW21 H23:BK23 H22:BF22 BJ21:BK22 BJ15:BK15">
-    <cfRule type="expression" dxfId="5" priority="85">
+  <conditionalFormatting sqref="K10 H12 N12 H13:M13 R13:U13 L11:N11 M10:P10 S10:Y10 T12:U12 Y12:AE12 W13:X13 AA13:AB13 H14:AC14 AH17:AI17 AN17:AP17 H17:AF18 AH18:AL18 AO18:AP18 AV17:BH17 AV18:AW18 H22:AL22 H21:AM21 AO21:AP21 H19:AX19 H20:AQ20 BC19:BD19 H23:AJ23 AY23:BD23 BG23:BH23 AL23:AW23 AY18:BJ18 AN22:BJ22 AT20:BJ21 BF19:BJ19 H15:AB15 AG15:AW15 BJ23 H25:BF29 H8:BZ8 AD13:BZ13 P11:BZ11 AH12:BZ12 AA10:BZ10 AG14:BZ14 H16:BZ16 BJ17:BZ17 BE15:BZ15 BK18:BZ23 BJ25:BZ25 BR26:BZ26 BK27:BZ27 BK29:BZ29 BK28:BL28">
+    <cfRule type="expression" dxfId="7" priority="87">
       <formula>H$5&lt;=Today</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BK5">
-    <cfRule type="expression" dxfId="4" priority="8">
+  <conditionalFormatting sqref="H5:BZ5">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>H$5&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:BK6">
-    <cfRule type="expression" dxfId="3" priority="88">
+  <conditionalFormatting sqref="H6:BZ6">
+    <cfRule type="expression" dxfId="5" priority="90">
       <formula>H$5&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:BK8 H10:I10 K9 H11:J11 M11:N11 R11 H12:N12 Q12:U12 L10:N10 M9:P9 S9:Y9 T11:U11 Y11:AE11 P10:BK10 W12:X12 AA12:AB12 AD12:BK12 AH11:BK11 AA9:BK9 H14:BK14 AH15:AI15 AN15:AP15 H15:AF16 AH16:AL16 AO16:AP16 AV15:BH15 AV16:AW16 AY16:BK16 H20:AL20 AN20:BK20 H19:AM19 AO19:AP19 H17:AX17 H18:AQ18 AT18:BK19 BC17:BD17 BF17:BK17 H21:AJ21 AY21:BD21 BG21:BH21 AL21:AW21 H23:BK23 H22:BF22 BJ21:BK22 BJ15:BK15">
-    <cfRule type="expression" dxfId="2" priority="89" stopIfTrue="1">
+  <conditionalFormatting sqref="H7:BK8 K10 H12 N12 H13:M13 R13:U13 L11:N11 M10:P10 S10:Y10 T12:U12 Y12:AE12 P11:BJ11 W13:X13 AA13:AB13 AD13:BJ13 AH12:BJ12 AA10:BJ10 H16:BJ16 AH17:AI17 AN17:AP17 H17:AF18 AH18:AL18 AO18:AP18 AV17:BH17 AV18:AW18 AY18:BJ18 H22:AL22 AN22:BJ22 H21:AM21 AO21:AP21 H19:AX19 H20:AQ20 AT20:BJ21 BC19:BD19 BF19:BJ19 H23:AJ23 AY23:BD23 BG23:BH23 AL23:AW23 BJ17 BJ23 BJ25 H25:BF25 BL8:BZ8">
+    <cfRule type="expression" dxfId="4" priority="91" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E7+1,H$5&lt;=$E7+$F7-2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG13:BK13 H13:AC13">
-    <cfRule type="expression" dxfId="1" priority="92" stopIfTrue="1">
+  <conditionalFormatting sqref="H14:AC14 AG14:BJ14 H15:AB15 AG15:AW15 BE15:BJ15 BK13:BZ13">
+    <cfRule type="expression" dxfId="3" priority="94" stopIfTrue="1">
       <formula>AND(H$5&gt;=#REF!+1,H$5&lt;=#REF!+#REF!-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK10:BZ12 BK16:BZ22 BR26:BZ26 BK27:BZ27 BK29:BZ29 BK28:BL28">
+    <cfRule type="expression" dxfId="2" priority="109" stopIfTrue="1">
+      <formula>AND(BK$5&gt;=$E11+1,BK$5&lt;=$E11+$F11-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BK14:BZ15 BK23:BZ23 BK25:BZ25">
+    <cfRule type="expression" dxfId="1" priority="154" stopIfTrue="1">
+      <formula>AND(BK$5&gt;=$E16+1,BK$5&lt;=$E16+$F16-2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4EE6D036-95FE-4F7E-B435-81BDF75365C6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C0A9AE9F-8031-4955-A638-BC70A27E8378}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:BF29">
+    <cfRule type="expression" dxfId="0" priority="158" stopIfTrue="1">
+      <formula>AND(H$5&gt;=$E25+1,H$5&lt;=$E25+$F25-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -6141,7 +7520,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="H13 I13:AB13 AG13:BK13 AM18" formula="1"/>
+    <ignoredError sqref="BK13 H14:BE14" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -6192,10 +7571,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D6:D23</xm:sqref>
+          <xm:sqref>D6:D26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{6C427F2E-2EF5-46B4-BFA6-7C68148277AC}">
+          <x14:cfRule type="iconSet" priority="11" id="{6C427F2E-2EF5-46B4-BFA6-7C68148277AC}">
             <x14:iconSet iconSet="3Flags" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6214,7 +7593,37 @@
           <xm:sqref>F4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="104" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="dataBar" id="{4EE6D036-95FE-4F7E-B435-81BDF75365C6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C0A9AE9F-8031-4955-A638-BC70A27E8378}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="160" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6230,7 +7639,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H7:BK8 H10:I10 K9 H11:J11 M11:N11 R11 H12:N12 Q12:U12 L10:N10 M9:P9 S9:Y9 T11:U11 Y11:AE11 P10:BK10 W12:X12 AA12:AB12 AD12:BK12 H14:BK14 AG13:BK13 AH11:BK11 H13:AC13 AA9:BK9 AH15:AI15 AN15:AP15 H15:AF16 AH16:AL16 AO16:AP16 AV15:BH15 AV16:AW16 AY16:BK16 H23:BK23 H20:AL20 AN20:BK20 H19:AM19 AO19:AP19 H17:AX17 H18:AQ18 AT18:BK19 BC17:BD17 BF17:BK17 H21:AJ21 AY21:BD21 BG21:BH21 AL21:AW21 H22:BF22 BJ21:BK22 BJ15:BK15</xm:sqref>
+          <xm:sqref>H7:BK8 K10 H12 N12 H13:M13 R13:U13 L11:N11 M10:P10 S10:Y10 T12:U12 Y12:AE12 W13:X13 AA13:AB13 H14:AC14 AH17:AI17 AN17:AP17 H17:AF18 AH18:AL18 AO18:AP18 AV17:BH17 AV18:AW18 AY18:BJ18 H22:AL22 AN22:BJ22 H21:AM21 AO21:AP21 H19:AX19 H20:AQ20 AT20:BJ21 BC19:BD19 BF19:BJ19 H23:AJ23 AY23:BD23 BG23:BH23 AL23:AW23 BJ23 H15:AB15 AG15:AW15 H25:BF29 BL8:BZ8 AD13:BZ13 AG14:BZ14 P11:BZ11 AH12:BZ12 AA10:BZ10 BK18:BZ23 BJ25:BZ25 H16:BZ16 BJ17:BZ17 BE15:BZ15 BR26:BZ26 BK27:BZ27 BK29:BZ29 BK28:BL28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6251,23 +7660,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" s="9" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>13</v>
+      <c r="A2" s="31" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="30" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="10" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/doc/SingtelIOTProjectPlan.xlsx
+++ b/doc/SingtelIOTProjectPlan.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>About This Template</t>
   </si>
@@ -155,9 +155,6 @@
     <t xml:space="preserve">Database management  part + user authorization </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>Jun Wen Wong, Mohamed Haroon Basheer and  LiuYuancheng</t>
@@ -191,28 +185,10 @@
     <t xml:space="preserve">Assigned </t>
   </si>
   <si>
-    <t>Design improvement and fixed the detial module need to implement</t>
-  </si>
-  <si>
     <t xml:space="preserve">Attestation with the gateway [25 June] </t>
   </si>
   <si>
     <t>Use Trust Zone to protect the gateway program</t>
-  </si>
-  <si>
-    <t>GateWay full disk encryption and protection.</t>
-  </si>
-  <si>
-    <t>GateWay full disk encryption [ 14 July]</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
   </si>
   <si>
     <t xml:space="preserve">Problem analysis  + Define scope + System design </t>
@@ -234,6 +210,15 @@
   </si>
   <si>
     <t>July</t>
+  </si>
+  <si>
+    <t>Design improvement and fixed the detail module need to implement</t>
+  </si>
+  <si>
+    <t>Gateway full disk encryption [ 14 July]</t>
+  </si>
+  <si>
+    <t>Gateway full disk encryption and protection.</t>
   </si>
 </sst>
 </file>
@@ -900,24 +885,6 @@
     <xf numFmtId="37" fontId="0" fillId="10" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyBorder="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="5" borderId="3" xfId="9" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="5" borderId="4" xfId="9" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -963,6 +930,24 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyBorder="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="5" borderId="3" xfId="9" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="5" borderId="4" xfId="9" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Bad" xfId="13" builtinId="27"/>
@@ -983,6 +968,30 @@
     <cellStyle name="zHiddenText" xfId="3"/>
   </cellStyles>
   <dxfs count="21">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1128,30 +1137,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="8" tint="-0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1410,7 +1395,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>219074</xdr:colOff>
+          <xdr:colOff>219075</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -1462,7 +1447,7 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Milestone Description" dataDxfId="8"/>
+    <tableColumn id="1" name="Milestone Description" dataDxfId="0"/>
     <tableColumn id="3" name="Assigned "/>
     <tableColumn id="4" name="Progress"/>
     <tableColumn id="5" name="Start"/>
@@ -1746,7 +1731,7 @@
   <dimension ref="A1:BZ30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="BM5" sqref="BM5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1770,7 +1755,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1"/>
@@ -1785,14 +1770,14 @@
       <c r="B2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64">
+      <c r="D2" s="80"/>
+      <c r="E2" s="81">
         <v>43556</v>
       </c>
-      <c r="F2" s="65"/>
+      <c r="F2" s="82"/>
       <c r="I2" s="33"/>
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
@@ -1804,13 +1789,13 @@
       <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="62" t="s">
+      <c r="B3" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="36">
         <v>0</v>
       </c>
@@ -1825,10 +1810,10 @@
       <c r="A4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="67"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="37">
         <v>3</v>
       </c>
@@ -1920,7 +1905,7 @@
       <c r="BM4" s="17"/>
       <c r="BN4" s="17"/>
       <c r="BO4" s="17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="BP4" s="17"/>
       <c r="BQ4" s="17"/>
@@ -1928,7 +1913,7 @@
       <c r="BS4" s="17"/>
       <c r="BT4" s="17"/>
       <c r="BU4" s="17" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="BV4" s="17"/>
       <c r="BW4" s="17"/>
@@ -2196,7 +2181,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>4</v>
@@ -2438,10 +2423,10 @@
       <c r="BO6" s="44"/>
       <c r="BP6" s="44"/>
       <c r="BQ6" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="BR6" s="44" t="s">
         <v>33</v>
-      </c>
-      <c r="BR6" s="44" t="s">
-        <v>34</v>
       </c>
       <c r="BS6" s="44"/>
       <c r="BT6" s="44"/>
@@ -2450,11 +2435,11 @@
       <c r="BW6" s="44"/>
       <c r="BX6" s="44"/>
       <c r="BY6" s="44"/>
-      <c r="BZ6" s="84" t="s">
-        <v>32</v>
+      <c r="BZ6" s="78" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:78" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:78" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
@@ -2525,8 +2510,8 @@
       <c r="A8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="78" t="s">
-        <v>52</v>
+      <c r="B8" s="72" t="s">
+        <v>44</v>
       </c>
       <c r="C8" s="49"/>
       <c r="D8" s="50"/>
@@ -2813,24 +2798,24 @@
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BZ8" s="75" t="str">
+      <c r="BZ8" s="69" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E8,$F8=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="69"/>
+      <c r="B9" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="63"/>
       <c r="D9" s="24">
         <v>1</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="64">
         <v>43556</v>
       </c>
-      <c r="F9" s="71"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="20"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -2874,40 +2859,40 @@
       <c r="AU9" s="56"/>
       <c r="AV9" s="56"/>
       <c r="AW9" s="56"/>
-      <c r="AX9" s="72"/>
-      <c r="AY9" s="72"/>
-      <c r="AZ9" s="72"/>
-      <c r="BA9" s="72"/>
-      <c r="BB9" s="72"/>
-      <c r="BC9" s="72"/>
-      <c r="BD9" s="72"/>
-      <c r="BE9" s="72"/>
-      <c r="BF9" s="72"/>
-      <c r="BG9" s="72"/>
-      <c r="BH9" s="72"/>
-      <c r="BI9" s="72"/>
-      <c r="BJ9" s="72"/>
-      <c r="BK9" s="72"/>
-      <c r="BL9" s="72"/>
-      <c r="BM9" s="72"/>
-      <c r="BN9" s="72"/>
-      <c r="BO9" s="72"/>
-      <c r="BP9" s="72"/>
-      <c r="BQ9" s="72"/>
-      <c r="BR9" s="72"/>
-      <c r="BS9" s="72"/>
-      <c r="BT9" s="72"/>
-      <c r="BU9" s="72"/>
-      <c r="BV9" s="72"/>
-      <c r="BW9" s="72"/>
-      <c r="BX9" s="72"/>
-      <c r="BY9" s="72"/>
-      <c r="BZ9" s="72"/>
+      <c r="AX9" s="66"/>
+      <c r="AY9" s="66"/>
+      <c r="AZ9" s="66"/>
+      <c r="BA9" s="66"/>
+      <c r="BB9" s="66"/>
+      <c r="BC9" s="66"/>
+      <c r="BD9" s="66"/>
+      <c r="BE9" s="66"/>
+      <c r="BF9" s="66"/>
+      <c r="BG9" s="66"/>
+      <c r="BH9" s="66"/>
+      <c r="BI9" s="66"/>
+      <c r="BJ9" s="66"/>
+      <c r="BK9" s="66"/>
+      <c r="BL9" s="66"/>
+      <c r="BM9" s="66"/>
+      <c r="BN9" s="66"/>
+      <c r="BO9" s="66"/>
+      <c r="BP9" s="66"/>
+      <c r="BQ9" s="66"/>
+      <c r="BR9" s="66"/>
+      <c r="BS9" s="66"/>
+      <c r="BT9" s="66"/>
+      <c r="BU9" s="66"/>
+      <c r="BV9" s="66"/>
+      <c r="BW9" s="66"/>
+      <c r="BX9" s="66"/>
+      <c r="BY9" s="66"/>
+      <c r="BZ9" s="66"/>
     </row>
     <row r="10" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="73" t="s">
-        <v>39</v>
+      <c r="B10" s="67" t="s">
+        <v>37</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="24">
@@ -3188,14 +3173,14 @@
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BZ10" s="75" t="str">
+      <c r="BZ10" s="69" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E11,$F11=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="67" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="27"/>
@@ -3479,15 +3464,15 @@
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BZ11" s="75" t="str">
+      <c r="BZ11" s="69" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
-      <c r="B12" s="73" t="s">
-        <v>40</v>
+      <c r="B12" s="67" t="s">
+        <v>38</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="24">
@@ -3509,7 +3494,7 @@
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
-      <c r="N12" s="75" t="str">
+      <c r="N12" s="69" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(N$5=$E12,$F12=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
@@ -3753,15 +3738,15 @@
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BZ12" s="75" t="str">
+      <c r="BZ12" s="69" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="73" t="s">
-        <v>41</v>
+      <c r="B13" s="67" t="s">
+        <v>39</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="24">
@@ -3790,11 +3775,11 @@
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(K$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="L13" s="75" t="str">
+      <c r="L13" s="69" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(L$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="M13" s="75" t="str">
+      <c r="M13" s="69" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(M$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
@@ -3802,11 +3787,11 @@
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
-      <c r="R13" s="75" t="str">
+      <c r="R13" s="69" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(R$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="S13" s="75" t="str">
+      <c r="S13" s="69" t="str">
         <f ca="1">IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(S$5=$E13,$F13=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
@@ -4030,14 +4015,14 @@
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BZ13" s="75" t="str">
+      <c r="BZ13" s="69" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=#REF!,#REF!=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="68" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="27"/>
@@ -4322,15 +4307,15 @@
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BZ14" s="75" t="str">
+      <c r="BZ14" s="69" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E16,$F16=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="73" t="s">
-        <v>43</v>
+      <c r="B15" s="67" t="s">
+        <v>50</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="24">
@@ -4368,7 +4353,7 @@
       <c r="AD15" s="19"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
-      <c r="AG15" s="75"/>
+      <c r="AG15" s="69"/>
       <c r="AH15" s="28"/>
       <c r="AI15" s="28"/>
       <c r="AJ15" s="28"/>
@@ -4413,12 +4398,12 @@
       <c r="BW15" s="28"/>
       <c r="BX15" s="28"/>
       <c r="BY15" s="28"/>
-      <c r="BZ15" s="75"/>
+      <c r="BZ15" s="69"/>
     </row>
     <row r="16" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
-      <c r="B16" s="79" t="s">
-        <v>38</v>
+      <c r="B16" s="73" t="s">
+        <v>36</v>
       </c>
       <c r="C16" s="58"/>
       <c r="D16" s="59"/>
@@ -4705,7 +4690,7 @@
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BZ16" s="75" t="str">
+      <c r="BZ16" s="69" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E17,$F17=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
@@ -4973,7 +4958,7 @@
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BZ17" s="75" t="str">
+      <c r="BZ17" s="69" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E18,$F18=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
@@ -5247,7 +5232,7 @@
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BZ18" s="75" t="str">
+      <c r="BZ18" s="69" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E19,$F19=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
@@ -5533,7 +5518,7 @@
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BZ19" s="75" t="str">
+      <c r="BZ19" s="69" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E20,$F20=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
@@ -5828,7 +5813,7 @@
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BZ20" s="75" t="str">
+      <c r="BZ20" s="69" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E21,$F21=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
@@ -5836,7 +5821,7 @@
     <row r="21" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="29" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="24">
@@ -6117,7 +6102,7 @@
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BZ21" s="75" t="str">
+      <c r="BZ21" s="69" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E22,$F22=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
@@ -6125,7 +6110,7 @@
     <row r="22" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="29" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="24">
@@ -6415,7 +6400,7 @@
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BZ22" s="75" t="str">
+      <c r="BZ22" s="69" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E23,$F23=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
@@ -6423,7 +6408,7 @@
     <row r="23" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="29" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="24">
@@ -6701,7 +6686,7 @@
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BZ23" s="75" t="str">
+      <c r="BZ23" s="69" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E25,$F25=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
@@ -6710,90 +6695,90 @@
       <c r="A24" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="80" t="s">
-        <v>44</v>
+      <c r="B24" s="74" t="s">
+        <v>41</v>
       </c>
       <c r="C24" s="58"/>
       <c r="D24" s="59"/>
       <c r="E24" s="60"/>
       <c r="F24" s="61"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="77"/>
-      <c r="T24" s="77"/>
-      <c r="U24" s="77"/>
-      <c r="V24" s="77"/>
-      <c r="W24" s="77"/>
-      <c r="X24" s="77"/>
-      <c r="Y24" s="77"/>
-      <c r="Z24" s="77"/>
-      <c r="AA24" s="77"/>
-      <c r="AB24" s="77"/>
-      <c r="AC24" s="77"/>
-      <c r="AD24" s="77"/>
-      <c r="AE24" s="77"/>
-      <c r="AF24" s="77"/>
-      <c r="AG24" s="77"/>
-      <c r="AH24" s="77"/>
-      <c r="AI24" s="77"/>
-      <c r="AJ24" s="77"/>
-      <c r="AK24" s="77"/>
-      <c r="AL24" s="77"/>
-      <c r="AM24" s="77"/>
-      <c r="AN24" s="77"/>
-      <c r="AO24" s="77"/>
-      <c r="AP24" s="77"/>
-      <c r="AQ24" s="77"/>
-      <c r="AR24" s="77"/>
-      <c r="AS24" s="77"/>
-      <c r="AT24" s="77"/>
-      <c r="AU24" s="77"/>
-      <c r="AV24" s="77"/>
-      <c r="AW24" s="77"/>
-      <c r="AX24" s="77"/>
-      <c r="AY24" s="77"/>
-      <c r="AZ24" s="77"/>
-      <c r="BA24" s="77"/>
-      <c r="BB24" s="77"/>
-      <c r="BC24" s="77"/>
-      <c r="BD24" s="77"/>
-      <c r="BE24" s="77"/>
-      <c r="BF24" s="77"/>
-      <c r="BG24" s="77"/>
-      <c r="BH24" s="77"/>
-      <c r="BI24" s="77"/>
-      <c r="BJ24" s="77"/>
-      <c r="BK24" s="77"/>
-      <c r="BL24" s="77"/>
-      <c r="BM24" s="77"/>
-      <c r="BN24" s="77"/>
-      <c r="BO24" s="77"/>
-      <c r="BP24" s="77"/>
-      <c r="BQ24" s="77"/>
-      <c r="BR24" s="77"/>
-      <c r="BS24" s="77"/>
-      <c r="BT24" s="77"/>
-      <c r="BU24" s="77"/>
-      <c r="BV24" s="77"/>
-      <c r="BW24" s="77"/>
-      <c r="BX24" s="77"/>
-      <c r="BY24" s="77"/>
-      <c r="BZ24" s="77"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="71"/>
+      <c r="AC24" s="71"/>
+      <c r="AD24" s="71"/>
+      <c r="AE24" s="71"/>
+      <c r="AF24" s="71"/>
+      <c r="AG24" s="71"/>
+      <c r="AH24" s="71"/>
+      <c r="AI24" s="71"/>
+      <c r="AJ24" s="71"/>
+      <c r="AK24" s="71"/>
+      <c r="AL24" s="71"/>
+      <c r="AM24" s="71"/>
+      <c r="AN24" s="71"/>
+      <c r="AO24" s="71"/>
+      <c r="AP24" s="71"/>
+      <c r="AQ24" s="71"/>
+      <c r="AR24" s="71"/>
+      <c r="AS24" s="71"/>
+      <c r="AT24" s="71"/>
+      <c r="AU24" s="71"/>
+      <c r="AV24" s="71"/>
+      <c r="AW24" s="71"/>
+      <c r="AX24" s="71"/>
+      <c r="AY24" s="71"/>
+      <c r="AZ24" s="71"/>
+      <c r="BA24" s="71"/>
+      <c r="BB24" s="71"/>
+      <c r="BC24" s="71"/>
+      <c r="BD24" s="71"/>
+      <c r="BE24" s="71"/>
+      <c r="BF24" s="71"/>
+      <c r="BG24" s="71"/>
+      <c r="BH24" s="71"/>
+      <c r="BI24" s="71"/>
+      <c r="BJ24" s="71"/>
+      <c r="BK24" s="71"/>
+      <c r="BL24" s="71"/>
+      <c r="BM24" s="71"/>
+      <c r="BN24" s="71"/>
+      <c r="BO24" s="71"/>
+      <c r="BP24" s="71"/>
+      <c r="BQ24" s="71"/>
+      <c r="BR24" s="71"/>
+      <c r="BS24" s="71"/>
+      <c r="BT24" s="71"/>
+      <c r="BU24" s="71"/>
+      <c r="BV24" s="71"/>
+      <c r="BW24" s="71"/>
+      <c r="BX24" s="71"/>
+      <c r="BY24" s="71"/>
+      <c r="BZ24" s="71"/>
     </row>
     <row r="25" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="67" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="27"/>
@@ -7078,15 +7063,15 @@
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[Start]])=0,"",IF(AND(BY$5=$E27,$F27=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
-      <c r="BZ25" s="75" t="str">
+      <c r="BZ25" s="69" t="str">
         <f>IFERROR(IF(LEN(Milestones[[#This Row],[No. Days]])=0,"",IF(AND(BZ$5=$E27,$F27=1),Milestone_Marker,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:78" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
-      <c r="B26" s="73" t="s">
-        <v>45</v>
+      <c r="B26" s="67" t="s">
+        <v>42</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="24">
@@ -7099,57 +7084,57 @@
         <v>5</v>
       </c>
       <c r="G26" s="20"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="76"/>
-      <c r="S26" s="76"/>
-      <c r="T26" s="76"/>
-      <c r="U26" s="76"/>
-      <c r="V26" s="76"/>
-      <c r="W26" s="76"/>
-      <c r="X26" s="76"/>
-      <c r="Y26" s="76"/>
-      <c r="Z26" s="76"/>
-      <c r="AA26" s="76"/>
-      <c r="AB26" s="76"/>
-      <c r="AC26" s="76"/>
-      <c r="AD26" s="76"/>
-      <c r="AE26" s="76"/>
-      <c r="AF26" s="76"/>
-      <c r="AG26" s="76"/>
-      <c r="AH26" s="76"/>
-      <c r="AI26" s="76"/>
-      <c r="AJ26" s="76"/>
-      <c r="AK26" s="76"/>
-      <c r="AL26" s="76"/>
-      <c r="AM26" s="76"/>
-      <c r="AN26" s="76"/>
-      <c r="AO26" s="76"/>
-      <c r="AP26" s="76"/>
-      <c r="AQ26" s="76"/>
-      <c r="AR26" s="76"/>
-      <c r="AS26" s="76"/>
-      <c r="AT26" s="76"/>
-      <c r="AU26" s="76"/>
-      <c r="AV26" s="76"/>
-      <c r="AW26" s="76"/>
-      <c r="AX26" s="76"/>
-      <c r="AY26" s="76"/>
-      <c r="AZ26" s="76"/>
-      <c r="BA26" s="76"/>
-      <c r="BB26" s="76"/>
-      <c r="BC26" s="76"/>
-      <c r="BD26" s="76"/>
-      <c r="BE26" s="76"/>
-      <c r="BF26" s="82"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="70"/>
+      <c r="W26" s="70"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="70"/>
+      <c r="Z26" s="70"/>
+      <c r="AA26" s="70"/>
+      <c r="AB26" s="70"/>
+      <c r="AC26" s="70"/>
+      <c r="AD26" s="70"/>
+      <c r="AE26" s="70"/>
+      <c r="AF26" s="70"/>
+      <c r="AG26" s="70"/>
+      <c r="AH26" s="70"/>
+      <c r="AI26" s="70"/>
+      <c r="AJ26" s="70"/>
+      <c r="AK26" s="70"/>
+      <c r="AL26" s="70"/>
+      <c r="AM26" s="70"/>
+      <c r="AN26" s="70"/>
+      <c r="AO26" s="70"/>
+      <c r="AP26" s="70"/>
+      <c r="AQ26" s="70"/>
+      <c r="AR26" s="70"/>
+      <c r="AS26" s="70"/>
+      <c r="AT26" s="70"/>
+      <c r="AU26" s="70"/>
+      <c r="AV26" s="70"/>
+      <c r="AW26" s="70"/>
+      <c r="AX26" s="70"/>
+      <c r="AY26" s="70"/>
+      <c r="AZ26" s="70"/>
+      <c r="BA26" s="70"/>
+      <c r="BB26" s="70"/>
+      <c r="BC26" s="70"/>
+      <c r="BD26" s="70"/>
+      <c r="BE26" s="70"/>
+      <c r="BF26" s="76"/>
       <c r="BG26" s="19"/>
       <c r="BH26" s="56"/>
       <c r="BI26" s="56"/>
@@ -7161,102 +7146,102 @@
       <c r="BO26" s="56"/>
       <c r="BP26" s="56"/>
       <c r="BQ26" s="56"/>
-      <c r="BR26" s="82"/>
-      <c r="BS26" s="82"/>
-      <c r="BT26" s="82"/>
-      <c r="BU26" s="82"/>
-      <c r="BV26" s="82"/>
-      <c r="BW26" s="82"/>
-      <c r="BX26" s="82"/>
-      <c r="BY26" s="82"/>
-      <c r="BZ26" s="82"/>
+      <c r="BR26" s="76"/>
+      <c r="BS26" s="76"/>
+      <c r="BT26" s="76"/>
+      <c r="BU26" s="76"/>
+      <c r="BV26" s="76"/>
+      <c r="BW26" s="76"/>
+      <c r="BX26" s="76"/>
+      <c r="BY26" s="76"/>
+      <c r="BZ26" s="76"/>
     </row>
     <row r="27" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="80" t="s">
-        <v>47</v>
+      <c r="B27" s="74" t="s">
+        <v>51</v>
       </c>
       <c r="C27" s="58"/>
       <c r="D27" s="59"/>
       <c r="E27" s="60"/>
       <c r="F27" s="61"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76"/>
-      <c r="R27" s="76"/>
-      <c r="S27" s="76"/>
-      <c r="T27" s="76"/>
-      <c r="U27" s="76"/>
-      <c r="V27" s="76"/>
-      <c r="W27" s="76"/>
-      <c r="X27" s="76"/>
-      <c r="Y27" s="76"/>
-      <c r="Z27" s="76"/>
-      <c r="AA27" s="76"/>
-      <c r="AB27" s="76"/>
-      <c r="AC27" s="76"/>
-      <c r="AD27" s="76"/>
-      <c r="AE27" s="76"/>
-      <c r="AF27" s="76"/>
-      <c r="AG27" s="76"/>
-      <c r="AH27" s="76"/>
-      <c r="AI27" s="76"/>
-      <c r="AJ27" s="76"/>
-      <c r="AK27" s="76"/>
-      <c r="AL27" s="76"/>
-      <c r="AM27" s="76"/>
-      <c r="AN27" s="76"/>
-      <c r="AO27" s="76"/>
-      <c r="AP27" s="76"/>
-      <c r="AQ27" s="76"/>
-      <c r="AR27" s="76"/>
-      <c r="AS27" s="76"/>
-      <c r="AT27" s="76"/>
-      <c r="AU27" s="76"/>
-      <c r="AV27" s="76"/>
-      <c r="AW27" s="76"/>
-      <c r="AX27" s="76"/>
-      <c r="AY27" s="76"/>
-      <c r="AZ27" s="76"/>
-      <c r="BA27" s="76"/>
-      <c r="BB27" s="76"/>
-      <c r="BC27" s="76"/>
-      <c r="BD27" s="76"/>
-      <c r="BE27" s="76"/>
-      <c r="BF27" s="82"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="70"/>
+      <c r="Z27" s="70"/>
+      <c r="AA27" s="70"/>
+      <c r="AB27" s="70"/>
+      <c r="AC27" s="70"/>
+      <c r="AD27" s="70"/>
+      <c r="AE27" s="70"/>
+      <c r="AF27" s="70"/>
+      <c r="AG27" s="70"/>
+      <c r="AH27" s="70"/>
+      <c r="AI27" s="70"/>
+      <c r="AJ27" s="70"/>
+      <c r="AK27" s="70"/>
+      <c r="AL27" s="70"/>
+      <c r="AM27" s="70"/>
+      <c r="AN27" s="70"/>
+      <c r="AO27" s="70"/>
+      <c r="AP27" s="70"/>
+      <c r="AQ27" s="70"/>
+      <c r="AR27" s="70"/>
+      <c r="AS27" s="70"/>
+      <c r="AT27" s="70"/>
+      <c r="AU27" s="70"/>
+      <c r="AV27" s="70"/>
+      <c r="AW27" s="70"/>
+      <c r="AX27" s="70"/>
+      <c r="AY27" s="70"/>
+      <c r="AZ27" s="70"/>
+      <c r="BA27" s="70"/>
+      <c r="BB27" s="70"/>
+      <c r="BC27" s="70"/>
+      <c r="BD27" s="70"/>
+      <c r="BE27" s="70"/>
+      <c r="BF27" s="76"/>
       <c r="BG27" s="19"/>
       <c r="BH27" s="19"/>
       <c r="BI27" s="19"/>
       <c r="BJ27" s="19"/>
-      <c r="BK27" s="82"/>
-      <c r="BL27" s="82"/>
-      <c r="BM27" s="82"/>
-      <c r="BN27" s="82"/>
-      <c r="BO27" s="82"/>
-      <c r="BP27" s="82"/>
-      <c r="BQ27" s="82"/>
-      <c r="BR27" s="82"/>
-      <c r="BS27" s="82"/>
-      <c r="BT27" s="82"/>
-      <c r="BU27" s="82"/>
-      <c r="BV27" s="82"/>
-      <c r="BW27" s="82"/>
-      <c r="BX27" s="82"/>
-      <c r="BY27" s="82"/>
-      <c r="BZ27" s="82"/>
+      <c r="BK27" s="76"/>
+      <c r="BL27" s="76"/>
+      <c r="BM27" s="76"/>
+      <c r="BN27" s="76"/>
+      <c r="BO27" s="76"/>
+      <c r="BP27" s="76"/>
+      <c r="BQ27" s="76"/>
+      <c r="BR27" s="76"/>
+      <c r="BS27" s="76"/>
+      <c r="BT27" s="76"/>
+      <c r="BU27" s="76"/>
+      <c r="BV27" s="76"/>
+      <c r="BW27" s="76"/>
+      <c r="BX27" s="76"/>
+      <c r="BY27" s="76"/>
+      <c r="BZ27" s="76"/>
     </row>
     <row r="28" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="83"/>
+      <c r="B28" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="77"/>
       <c r="D28" s="24">
         <v>0.01</v>
       </c>
@@ -7266,63 +7251,63 @@
       <c r="F28" s="26">
         <v>7</v>
       </c>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="76"/>
-      <c r="S28" s="76"/>
-      <c r="T28" s="76"/>
-      <c r="U28" s="76"/>
-      <c r="V28" s="76"/>
-      <c r="W28" s="76"/>
-      <c r="X28" s="76"/>
-      <c r="Y28" s="76"/>
-      <c r="Z28" s="76"/>
-      <c r="AA28" s="76"/>
-      <c r="AB28" s="76"/>
-      <c r="AC28" s="76"/>
-      <c r="AD28" s="76"/>
-      <c r="AE28" s="76"/>
-      <c r="AF28" s="76"/>
-      <c r="AG28" s="76"/>
-      <c r="AH28" s="76"/>
-      <c r="AI28" s="76"/>
-      <c r="AJ28" s="76"/>
-      <c r="AK28" s="76"/>
-      <c r="AL28" s="76"/>
-      <c r="AM28" s="76"/>
-      <c r="AN28" s="76"/>
-      <c r="AO28" s="76"/>
-      <c r="AP28" s="76"/>
-      <c r="AQ28" s="76"/>
-      <c r="AR28" s="76"/>
-      <c r="AS28" s="76"/>
-      <c r="AT28" s="76"/>
-      <c r="AU28" s="76"/>
-      <c r="AV28" s="76"/>
-      <c r="AW28" s="76"/>
-      <c r="AX28" s="76"/>
-      <c r="AY28" s="76"/>
-      <c r="AZ28" s="76"/>
-      <c r="BA28" s="76"/>
-      <c r="BB28" s="76"/>
-      <c r="BC28" s="76"/>
-      <c r="BD28" s="76"/>
-      <c r="BE28" s="76"/>
-      <c r="BF28" s="82"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="70"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="70"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="70"/>
+      <c r="Y28" s="70"/>
+      <c r="Z28" s="70"/>
+      <c r="AA28" s="70"/>
+      <c r="AB28" s="70"/>
+      <c r="AC28" s="70"/>
+      <c r="AD28" s="70"/>
+      <c r="AE28" s="70"/>
+      <c r="AF28" s="70"/>
+      <c r="AG28" s="70"/>
+      <c r="AH28" s="70"/>
+      <c r="AI28" s="70"/>
+      <c r="AJ28" s="70"/>
+      <c r="AK28" s="70"/>
+      <c r="AL28" s="70"/>
+      <c r="AM28" s="70"/>
+      <c r="AN28" s="70"/>
+      <c r="AO28" s="70"/>
+      <c r="AP28" s="70"/>
+      <c r="AQ28" s="70"/>
+      <c r="AR28" s="70"/>
+      <c r="AS28" s="70"/>
+      <c r="AT28" s="70"/>
+      <c r="AU28" s="70"/>
+      <c r="AV28" s="70"/>
+      <c r="AW28" s="70"/>
+      <c r="AX28" s="70"/>
+      <c r="AY28" s="70"/>
+      <c r="AZ28" s="70"/>
+      <c r="BA28" s="70"/>
+      <c r="BB28" s="70"/>
+      <c r="BC28" s="70"/>
+      <c r="BD28" s="70"/>
+      <c r="BE28" s="70"/>
+      <c r="BF28" s="76"/>
       <c r="BG28" s="19"/>
       <c r="BH28" s="19"/>
       <c r="BI28" s="19"/>
       <c r="BJ28" s="19"/>
-      <c r="BK28" s="82"/>
-      <c r="BL28" s="82"/>
+      <c r="BK28" s="76"/>
+      <c r="BL28" s="76"/>
       <c r="BM28" s="56"/>
       <c r="BN28" s="56"/>
       <c r="BO28" s="56"/>
@@ -7344,77 +7329,77 @@
       </c>
       <c r="C29" s="5"/>
       <c r="F29" s="14"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="76"/>
-      <c r="R29" s="76"/>
-      <c r="S29" s="76"/>
-      <c r="T29" s="76"/>
-      <c r="U29" s="76"/>
-      <c r="V29" s="76"/>
-      <c r="W29" s="76"/>
-      <c r="X29" s="76"/>
-      <c r="Y29" s="76"/>
-      <c r="Z29" s="76"/>
-      <c r="AA29" s="76"/>
-      <c r="AB29" s="76"/>
-      <c r="AC29" s="76"/>
-      <c r="AD29" s="76"/>
-      <c r="AE29" s="76"/>
-      <c r="AF29" s="76"/>
-      <c r="AG29" s="76"/>
-      <c r="AH29" s="76"/>
-      <c r="AI29" s="76"/>
-      <c r="AJ29" s="76"/>
-      <c r="AK29" s="76"/>
-      <c r="AL29" s="76"/>
-      <c r="AM29" s="76"/>
-      <c r="AN29" s="76"/>
-      <c r="AO29" s="76"/>
-      <c r="AP29" s="76"/>
-      <c r="AQ29" s="76"/>
-      <c r="AR29" s="76"/>
-      <c r="AS29" s="76"/>
-      <c r="AT29" s="76"/>
-      <c r="AU29" s="76"/>
-      <c r="AV29" s="76"/>
-      <c r="AW29" s="76"/>
-      <c r="AX29" s="76"/>
-      <c r="AY29" s="76"/>
-      <c r="AZ29" s="76"/>
-      <c r="BA29" s="76"/>
-      <c r="BB29" s="76"/>
-      <c r="BC29" s="76"/>
-      <c r="BD29" s="76"/>
-      <c r="BE29" s="76"/>
-      <c r="BF29" s="82"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="70"/>
+      <c r="U29" s="70"/>
+      <c r="V29" s="70"/>
+      <c r="W29" s="70"/>
+      <c r="X29" s="70"/>
+      <c r="Y29" s="70"/>
+      <c r="Z29" s="70"/>
+      <c r="AA29" s="70"/>
+      <c r="AB29" s="70"/>
+      <c r="AC29" s="70"/>
+      <c r="AD29" s="70"/>
+      <c r="AE29" s="70"/>
+      <c r="AF29" s="70"/>
+      <c r="AG29" s="70"/>
+      <c r="AH29" s="70"/>
+      <c r="AI29" s="70"/>
+      <c r="AJ29" s="70"/>
+      <c r="AK29" s="70"/>
+      <c r="AL29" s="70"/>
+      <c r="AM29" s="70"/>
+      <c r="AN29" s="70"/>
+      <c r="AO29" s="70"/>
+      <c r="AP29" s="70"/>
+      <c r="AQ29" s="70"/>
+      <c r="AR29" s="70"/>
+      <c r="AS29" s="70"/>
+      <c r="AT29" s="70"/>
+      <c r="AU29" s="70"/>
+      <c r="AV29" s="70"/>
+      <c r="AW29" s="70"/>
+      <c r="AX29" s="70"/>
+      <c r="AY29" s="70"/>
+      <c r="AZ29" s="70"/>
+      <c r="BA29" s="70"/>
+      <c r="BB29" s="70"/>
+      <c r="BC29" s="70"/>
+      <c r="BD29" s="70"/>
+      <c r="BE29" s="70"/>
+      <c r="BF29" s="76"/>
       <c r="BG29" s="19"/>
       <c r="BH29" s="19"/>
       <c r="BI29" s="19"/>
       <c r="BJ29" s="19"/>
-      <c r="BK29" s="82"/>
-      <c r="BL29" s="82"/>
-      <c r="BM29" s="82"/>
-      <c r="BN29" s="82"/>
-      <c r="BO29" s="82"/>
-      <c r="BP29" s="82"/>
-      <c r="BQ29" s="82"/>
-      <c r="BR29" s="82"/>
-      <c r="BS29" s="82"/>
-      <c r="BT29" s="82"/>
-      <c r="BU29" s="82"/>
-      <c r="BV29" s="82"/>
-      <c r="BW29" s="82"/>
-      <c r="BX29" s="82"/>
-      <c r="BY29" s="82"/>
-      <c r="BZ29" s="82"/>
+      <c r="BK29" s="76"/>
+      <c r="BL29" s="76"/>
+      <c r="BM29" s="76"/>
+      <c r="BN29" s="76"/>
+      <c r="BO29" s="76"/>
+      <c r="BP29" s="76"/>
+      <c r="BQ29" s="76"/>
+      <c r="BR29" s="76"/>
+      <c r="BS29" s="76"/>
+      <c r="BT29" s="76"/>
+      <c r="BU29" s="76"/>
+      <c r="BV29" s="76"/>
+      <c r="BW29" s="76"/>
+      <c r="BX29" s="76"/>
+      <c r="BY29" s="76"/>
+      <c r="BZ29" s="76"/>
     </row>
     <row r="30" spans="1:78" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="6"/>
@@ -7441,37 +7426,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10 H12 N12 H13:M13 R13:U13 L11:N11 M10:P10 S10:Y10 T12:U12 Y12:AE12 W13:X13 AA13:AB13 H14:AC14 AH17:AI17 AN17:AP17 H17:AF18 AH18:AL18 AO18:AP18 AV17:BH17 AV18:AW18 H22:AL22 H21:AM21 AO21:AP21 H19:AX19 H20:AQ20 BC19:BD19 H23:AJ23 AY23:BD23 BG23:BH23 AL23:AW23 AY18:BJ18 AN22:BJ22 AT20:BJ21 BF19:BJ19 H15:AB15 AG15:AW15 BJ23 H25:BF29 H8:BZ8 AD13:BZ13 P11:BZ11 AH12:BZ12 AA10:BZ10 AG14:BZ14 H16:BZ16 BJ17:BZ17 BE15:BZ15 BK18:BZ23 BJ25:BZ25 BR26:BZ26 BK27:BZ27 BK29:BZ29 BK28:BL28">
-    <cfRule type="expression" dxfId="7" priority="87">
+    <cfRule type="expression" dxfId="8" priority="87">
       <formula>H$5&lt;=Today</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:BZ5">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>H$5&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:BZ6">
-    <cfRule type="expression" dxfId="5" priority="90">
+    <cfRule type="expression" dxfId="6" priority="90">
       <formula>H$5&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:BK8 K10 H12 N12 H13:M13 R13:U13 L11:N11 M10:P10 S10:Y10 T12:U12 Y12:AE12 P11:BJ11 W13:X13 AA13:AB13 AD13:BJ13 AH12:BJ12 AA10:BJ10 H16:BJ16 AH17:AI17 AN17:AP17 H17:AF18 AH18:AL18 AO18:AP18 AV17:BH17 AV18:AW18 AY18:BJ18 H22:AL22 AN22:BJ22 H21:AM21 AO21:AP21 H19:AX19 H20:AQ20 AT20:BJ21 BC19:BD19 BF19:BJ19 H23:AJ23 AY23:BD23 BG23:BH23 AL23:AW23 BJ17 BJ23 BJ25 H25:BF25 BL8:BZ8">
-    <cfRule type="expression" dxfId="4" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="91" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E7+1,H$5&lt;=$E7+$F7-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:AC14 AG14:BJ14 H15:AB15 AG15:AW15 BE15:BJ15 BK13:BZ13">
-    <cfRule type="expression" dxfId="3" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="94" stopIfTrue="1">
       <formula>AND(H$5&gt;=#REF!+1,H$5&lt;=#REF!+#REF!-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK10:BZ12 BK16:BZ22 BR26:BZ26 BK27:BZ27 BK29:BZ29 BK28:BL28">
-    <cfRule type="expression" dxfId="2" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="109" stopIfTrue="1">
       <formula>AND(BK$5&gt;=$E11+1,BK$5&lt;=$E11+$F11-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK14:BZ15 BK23:BZ23 BK25:BZ25">
-    <cfRule type="expression" dxfId="1" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="154" stopIfTrue="1">
       <formula>AND(BK$5&gt;=$E16+1,BK$5&lt;=$E16+$F16-2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7504,7 +7489,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:BF29">
-    <cfRule type="expression" dxfId="0" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="158" stopIfTrue="1">
       <formula>AND(H$5&gt;=$E25+1,H$5&lt;=$E25+$F25-2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7574,25 +7559,6 @@
           <xm:sqref>D6:D26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{6C427F2E-2EF5-46B4-BFA6-7C68148277AC}">
-            <x14:iconSet iconSet="3Flags" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Signs" iconId="1"/>
-              <x14:cfIcon iconSet="3Flags" iconId="0"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4EE6D036-95FE-4F7E-B435-81BDF75365C6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -7621,6 +7587,25 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>D28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{6C427F2E-2EF5-46B4-BFA6-7C68148277AC}">
+            <x14:iconSet iconSet="3Flags" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="1"/>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="160" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">

--- a/doc/SingtelIOTProjectPlan.xlsx
+++ b/doc/SingtelIOTProjectPlan.xlsx
@@ -1730,8 +1730,8 @@
   </sheetPr>
   <dimension ref="A1:BZ30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="24">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E25" s="25">
         <v>43607</v>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="24">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E26" s="25">
         <v>43621</v>

--- a/doc/SingtelIOTProjectPlan.xlsx
+++ b/doc/SingtelIOTProjectPlan.xlsx
@@ -1730,8 +1730,8 @@
   </sheetPr>
   <dimension ref="A1:BZ30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="D4" s="84"/>
       <c r="E4" s="37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="34">
         <f>Milestone_Marker</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="17" t="str">
         <f ca="1">TEXT(H5,"mmmm")</f>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="24">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="E25" s="25">
         <v>43607</v>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="24">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E26" s="25">
         <v>43621</v>

--- a/doc/SingtelIOTProjectPlan.xlsx
+++ b/doc/SingtelIOTProjectPlan.xlsx
@@ -7075,7 +7075,7 @@
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="24">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="E26" s="25">
         <v>43621</v>

--- a/doc/SingtelIOTProjectPlan.xlsx
+++ b/doc/SingtelIOTProjectPlan.xlsx
@@ -1731,7 +1731,7 @@
   <dimension ref="A1:BZ30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="24">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="E26" s="25">
         <v>43621</v>
@@ -7243,7 +7243,7 @@
       </c>
       <c r="C28" s="77"/>
       <c r="D28" s="24">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="E28" s="25">
         <v>43621</v>
